--- a/data/strategies/民生场内策略结果.xlsx
+++ b/data/strategies/民生场内策略结果.xlsx
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="209">
+  <si>
+    <t>鹏华中证细分化工产业主题ETF</t>
+  </si>
   <si>
     <t>汇添富中证主要消费ETF</t>
   </si>
@@ -26,21 +29,18 @@
     <t>广发中证全指可选消费ETF</t>
   </si>
   <si>
+    <t>华宝中证医疗ETF</t>
+  </si>
+  <si>
+    <t>天弘中证银行ETF</t>
+  </si>
+  <si>
     <t>国泰中证800汽车与零部件ETF</t>
   </si>
   <si>
     <t xml:space="preserve">易方达中证云计算与大数据ETF </t>
   </si>
   <si>
-    <t>华宝中证医疗ETF</t>
-  </si>
-  <si>
-    <t>天弘中证银行ETF</t>
-  </si>
-  <si>
-    <t>鹏华中证细分化工产业主题ETF</t>
-  </si>
-  <si>
     <t>合理估值+确定性</t>
   </si>
   <si>
@@ -71,535 +71,532 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>2.85%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>16.41%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
+    <t>-1.43%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>5.61%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>4.60%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>17.35%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>15.96%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>20.39%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
+  </si>
+  <si>
+    <t>场内权重</t>
+  </si>
+  <si>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
+  </si>
+  <si>
+    <t>场内基金</t>
+  </si>
+  <si>
+    <t>场内代码</t>
+  </si>
+  <si>
+    <t>159870.OF</t>
+  </si>
+  <si>
+    <t>159928.OF</t>
+  </si>
+  <si>
+    <t>159936.OF</t>
+  </si>
+  <si>
+    <t>512170.OF</t>
+  </si>
+  <si>
+    <t>515290.OF</t>
+  </si>
+  <si>
+    <t>516110.OF</t>
+  </si>
+  <si>
+    <t>516510.OF</t>
   </si>
   <si>
     <t>6.83%</t>
   </si>
   <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>15.83%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
+    <t>-9.79%</t>
+  </si>
+  <si>
+    <t>-1.30%</t>
+  </si>
+  <si>
+    <t>-3.15%</t>
+  </si>
+  <si>
+    <t>-6.42%</t>
+  </si>
+  <si>
+    <t>12.00%</t>
+  </si>
+  <si>
+    <t>-1.40%</t>
+  </si>
+  <si>
+    <t>16.09%</t>
+  </si>
+  <si>
+    <t>-3.97%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>13.54%</t>
+  </si>
+  <si>
+    <t>-4.30%</t>
+  </si>
+  <si>
+    <t>24.68%</t>
+  </si>
+  <si>
+    <t>2.21%</t>
+  </si>
+  <si>
+    <t>21.19%</t>
+  </si>
+  <si>
+    <t>-9.62%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>10.33%</t>
+  </si>
+  <si>
+    <t>4.21%</t>
+  </si>
+  <si>
+    <t>14.55%</t>
+  </si>
+  <si>
+    <t>-9.41%</t>
+  </si>
+  <si>
+    <t>23.52%</t>
+  </si>
+  <si>
+    <t>19.24%</t>
+  </si>
+  <si>
+    <t>14.90%</t>
+  </si>
+  <si>
+    <t>38.50%</t>
+  </si>
+  <si>
+    <t>18.68%</t>
+  </si>
+  <si>
+    <t>35.10%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>23.41%</t>
+  </si>
+  <si>
+    <t>21.47%</t>
+  </si>
+  <si>
+    <t>15.67%</t>
+  </si>
+  <si>
+    <t>31.42%</t>
+  </si>
+  <si>
+    <t>17.41%</t>
+  </si>
+  <si>
+    <t>30.30%</t>
+  </si>
+  <si>
+    <t>20.19%</t>
+  </si>
+  <si>
+    <t>32.86%</t>
+  </si>
+  <si>
+    <t>29.76%</t>
+  </si>
+  <si>
+    <t>19.60%</t>
+  </si>
+  <si>
+    <t>35.18%</t>
+  </si>
+  <si>
+    <t>21.00%</t>
+  </si>
+  <si>
+    <t>32.18%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>股票权重</t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t>财报主营构成</t>
+  </si>
+  <si>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>600660.SH</t>
+  </si>
+  <si>
+    <t>600104.SH</t>
+  </si>
+  <si>
+    <t>300015.SZ</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
+  </si>
+  <si>
+    <t>300760.SZ</t>
+  </si>
+  <si>
+    <t>600570.SH</t>
+  </si>
+  <si>
+    <t>000625.SZ</t>
+  </si>
+  <si>
+    <t>688111.SH</t>
+  </si>
+  <si>
+    <t>601633.SH</t>
+  </si>
+  <si>
+    <t>600036.SH</t>
+  </si>
+  <si>
+    <t>002410.SZ</t>
+  </si>
+  <si>
+    <t>600309.SH</t>
+  </si>
+  <si>
+    <t>600588.SH</t>
+  </si>
+  <si>
+    <t>600741.SH</t>
+  </si>
+  <si>
+    <t>601166.SH</t>
+  </si>
+  <si>
+    <t>300347.SZ</t>
+  </si>
+  <si>
+    <t>300253.SZ</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>600763.SH</t>
+  </si>
+  <si>
+    <t>415.41%</t>
+  </si>
+  <si>
+    <t>235.82%</t>
+  </si>
+  <si>
+    <t>231.89%</t>
+  </si>
+  <si>
+    <t>208.46%</t>
+  </si>
+  <si>
+    <t>205.24%</t>
+  </si>
+  <si>
+    <t>190.36%</t>
+  </si>
+  <si>
+    <t>179.54%</t>
+  </si>
+  <si>
+    <t>167.80%</t>
+  </si>
+  <si>
+    <t>160.15%</t>
+  </si>
+  <si>
+    <t>149.82%</t>
+  </si>
+  <si>
+    <t>149.28%</t>
+  </si>
+  <si>
+    <t>128.58%</t>
+  </si>
+  <si>
+    <t>125.36%</t>
+  </si>
+  <si>
+    <t>124.70%</t>
+  </si>
+  <si>
+    <t>121.07%</t>
+  </si>
+  <si>
+    <t>110.18%</t>
+  </si>
+  <si>
+    <t>105.34%</t>
+  </si>
+  <si>
+    <t>101.74%</t>
+  </si>
+  <si>
+    <t>100.24%</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
+    <t>恒生电子</t>
+  </si>
+  <si>
+    <t>长安汽车</t>
+  </si>
+  <si>
+    <t>金山办公</t>
+  </si>
+  <si>
+    <t>长城汽车</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>广联达</t>
+  </si>
+  <si>
+    <t>万华化学</t>
+  </si>
+  <si>
+    <t>用友网络</t>
+  </si>
+  <si>
+    <t>华域汽车</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>泰格医药</t>
+  </si>
+  <si>
+    <t>卫宁健康</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>汽车玻璃</t>
+  </si>
+  <si>
+    <t>整车业务</t>
+  </si>
+  <si>
+    <t>医疗服务-准分子手术</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>生命信息与支持类产品</t>
+  </si>
+  <si>
+    <t>软件收入</t>
+  </si>
+  <si>
+    <t>整车</t>
+  </si>
+  <si>
+    <t>办公服务订阅</t>
+  </si>
+  <si>
+    <t>销售汽车收入</t>
+  </si>
+  <si>
+    <t>利息收入:发放贷款及垫款:个人贷款业务</t>
+  </si>
+  <si>
+    <t>工程造价业务</t>
+  </si>
+  <si>
+    <t>聚氨酯系列</t>
+  </si>
+  <si>
+    <t>技术服务及培训</t>
+  </si>
+  <si>
+    <t>内外饰件</t>
+  </si>
+  <si>
+    <t>临床研究相关咨询服务</t>
+  </si>
+  <si>
+    <t>软件销售</t>
+  </si>
+  <si>
+    <t>酒类</t>
+  </si>
+  <si>
+    <t>医疗服务</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>15.33%</t>
+  </si>
+  <si>
+    <t>-10.69%</t>
+  </si>
+  <si>
+    <t>16.08%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>-15.58%</t>
+  </si>
+  <si>
+    <t>38.97%</t>
+  </si>
+  <si>
+    <t>6.27%</t>
+  </si>
+  <si>
+    <t>32.81%</t>
   </si>
   <si>
     <t>17.07%</t>
   </si>
   <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>22.21%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
-  </si>
-  <si>
-    <t>场内权重</t>
-  </si>
-  <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
-  </si>
-  <si>
-    <t>场内基金</t>
-  </si>
-  <si>
-    <t>场内代码</t>
-  </si>
-  <si>
-    <t>159928.OF</t>
-  </si>
-  <si>
-    <t>159936.OF</t>
-  </si>
-  <si>
-    <t>516110.OF</t>
-  </si>
-  <si>
-    <t>516510.OF</t>
-  </si>
-  <si>
-    <t>512170.OF</t>
-  </si>
-  <si>
-    <t>515290.OF</t>
-  </si>
-  <si>
-    <t>159870.OF</t>
-  </si>
-  <si>
-    <t>-6.38%</t>
-  </si>
-  <si>
-    <t>-0.89%</t>
-  </si>
-  <si>
-    <t>15.03%</t>
-  </si>
-  <si>
-    <t>0.71%</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>-3.43%</t>
-  </si>
-  <si>
-    <t>5.53%</t>
-  </si>
-  <si>
-    <t>6.64%</t>
-  </si>
-  <si>
-    <t>5.87%</t>
-  </si>
-  <si>
-    <t>30.35%</t>
-  </si>
-  <si>
-    <t>7.98%</t>
-  </si>
-  <si>
-    <t>29.60%</t>
-  </si>
-  <si>
-    <t>0.53%</t>
-  </si>
-  <si>
-    <t>18.93%</t>
-  </si>
-  <si>
-    <t>-3.53%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>13.02%</t>
-  </si>
-  <si>
-    <t>-8.40%</t>
-  </si>
-  <si>
-    <t>17.68%</t>
-  </si>
-  <si>
-    <t>9.17%</t>
-  </si>
-  <si>
-    <t>15.86%</t>
-  </si>
-  <si>
-    <t>17.49%</t>
-  </si>
-  <si>
-    <t>11.76%</t>
-  </si>
-  <si>
-    <t>30.68%</t>
-  </si>
-  <si>
-    <t>27.93%</t>
-  </si>
-  <si>
-    <t>12.27%</t>
-  </si>
-  <si>
-    <t>21.99%</t>
-  </si>
-  <si>
-    <t>21.78%</t>
-  </si>
-  <si>
-    <t>15.79%</t>
-  </si>
-  <si>
-    <t>29.86%</t>
-  </si>
-  <si>
-    <t>20.22%</t>
-  </si>
-  <si>
-    <t>27.56%</t>
-  </si>
-  <si>
-    <t>15.28%</t>
-  </si>
-  <si>
-    <t>23.07%</t>
-  </si>
-  <si>
-    <t>30.15%</t>
-  </si>
-  <si>
-    <t>19.87%</t>
-  </si>
-  <si>
-    <t>32.45%</t>
-  </si>
-  <si>
-    <t>23.64%</t>
-  </si>
-  <si>
-    <t>34.07%</t>
-  </si>
-  <si>
-    <t>20.66%</t>
-  </si>
-  <si>
-    <t>33.36%</t>
-  </si>
-  <si>
-    <t>股票代码</t>
-  </si>
-  <si>
-    <t>股票权重</t>
-  </si>
-  <si>
-    <t>股票名称</t>
-  </si>
-  <si>
-    <t>财报主营构成</t>
-  </si>
-  <si>
-    <t>区间涨跌幅</t>
-  </si>
-  <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>603259.SH</t>
-  </si>
-  <si>
-    <t>600660.SH</t>
-  </si>
-  <si>
-    <t>300760.SZ</t>
-  </si>
-  <si>
-    <t>600104.SH</t>
-  </si>
-  <si>
-    <t>600570.SH</t>
-  </si>
-  <si>
-    <t>300015.SZ</t>
-  </si>
-  <si>
-    <t>002410.SZ</t>
-  </si>
-  <si>
-    <t>600036.SH</t>
-  </si>
-  <si>
-    <t>000625.SZ</t>
-  </si>
-  <si>
-    <t>600588.SH</t>
-  </si>
-  <si>
-    <t>600309.SH</t>
-  </si>
-  <si>
-    <t>300454.SZ</t>
-  </si>
-  <si>
-    <t>601633.SH</t>
-  </si>
-  <si>
-    <t>601166.SH</t>
-  </si>
-  <si>
-    <t>300347.SZ</t>
-  </si>
-  <si>
-    <t>300253.SZ</t>
-  </si>
-  <si>
-    <t>600741.SH</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>600763.SH</t>
-  </si>
-  <si>
-    <t>3.32%</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>2.25%</t>
-  </si>
-  <si>
-    <t>2.24%</t>
-  </si>
-  <si>
-    <t>2.18%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>1.82%</t>
-  </si>
-  <si>
-    <t>1.76%</t>
-  </si>
-  <si>
-    <t>1.63%</t>
-  </si>
-  <si>
-    <t>1.57%</t>
-  </si>
-  <si>
-    <t>1.45%</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>1.38%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.27%</t>
-  </si>
-  <si>
-    <t>1.22%</t>
-  </si>
-  <si>
-    <t>1.19%</t>
-  </si>
-  <si>
-    <t>1.10%</t>
-  </si>
-  <si>
-    <t>1.09%</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>福耀玻璃</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>上汽集团</t>
-  </si>
-  <si>
-    <t>恒生电子</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>广联达</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>长安汽车</t>
-  </si>
-  <si>
-    <t>用友网络</t>
-  </si>
-  <si>
-    <t>万华化学</t>
-  </si>
-  <si>
-    <t>深信服</t>
-  </si>
-  <si>
-    <t>长城汽车</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>泰格医药</t>
-  </si>
-  <si>
-    <t>卫宁健康</t>
-  </si>
-  <si>
-    <t>华域汽车</t>
-  </si>
-  <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>通策医疗</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>汽车玻璃</t>
-  </si>
-  <si>
-    <t>生命信息与支持类产品</t>
-  </si>
-  <si>
-    <t>整车业务</t>
-  </si>
-  <si>
-    <t>软件收入</t>
-  </si>
-  <si>
-    <t>医疗服务-准分子手术</t>
-  </si>
-  <si>
-    <t>工程造价业务</t>
-  </si>
-  <si>
-    <t>利息收入:发放贷款及垫款:个人贷款业务</t>
-  </si>
-  <si>
-    <t>整车</t>
-  </si>
-  <si>
-    <t>技术服务及培训</t>
-  </si>
-  <si>
-    <t>聚氨酯系列</t>
-  </si>
-  <si>
-    <t>安全业务</t>
-  </si>
-  <si>
-    <t>销售汽车收入</t>
-  </si>
-  <si>
-    <t>临床研究相关咨询服务</t>
-  </si>
-  <si>
-    <t>软件销售</t>
-  </si>
-  <si>
-    <t>内外饰件</t>
-  </si>
-  <si>
-    <t>茅台酒</t>
-  </si>
-  <si>
-    <t>医疗服务</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>20.29%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>-8.19%</t>
-  </si>
-  <si>
-    <t>-13.85%</t>
-  </si>
-  <si>
-    <t>22.94%</t>
-  </si>
-  <si>
-    <t>-11.42%</t>
-  </si>
-  <si>
-    <t>27.06%</t>
-  </si>
-  <si>
-    <t>24.06%</t>
-  </si>
-  <si>
-    <t>-22.77%</t>
-  </si>
-  <si>
-    <t>20.10%</t>
-  </si>
-  <si>
-    <t>6.17%</t>
-  </si>
-  <si>
-    <t>20.38%</t>
-  </si>
-  <si>
-    <t>-3.21%</t>
-  </si>
-  <si>
-    <t>20.12%</t>
-  </si>
-  <si>
-    <t>-0.37%</t>
-  </si>
-  <si>
-    <t>-5.25%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>49.29%</t>
+    <t>-6.65%</t>
+  </si>
+  <si>
+    <t>41.34%</t>
+  </si>
+  <si>
+    <t>-22.65%</t>
+  </si>
+  <si>
+    <t>-16.96%</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>5.73%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>32.76%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -623,37 +620,31 @@
     <t>化工</t>
   </si>
   <si>
-    <t>互联网服务</t>
-  </si>
-  <si>
     <t>食品饮料</t>
   </si>
   <si>
-    <t>33.16%</t>
-  </si>
-  <si>
-    <t>22.53%</t>
-  </si>
-  <si>
-    <t>10.24%</t>
-  </si>
-  <si>
-    <t>8.49%</t>
-  </si>
-  <si>
-    <t>8.32%</t>
-  </si>
-  <si>
-    <t>6.22%</t>
-  </si>
-  <si>
-    <t>4.02%</t>
-  </si>
-  <si>
-    <t>3.97%</t>
-  </si>
-  <si>
-    <t>3.05%</t>
+    <t>13.48%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>3.15%</t>
+  </si>
+  <si>
+    <t>3.09%</t>
+  </si>
+  <si>
+    <t>2.71%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>1.29%</t>
+  </si>
+  <si>
+    <t>1.02%</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1098,28 +1089,28 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.02686009883611</v>
+      </c>
+      <c r="C3">
         <v>1.039420956763494</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.015851517431653</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9954180985108819</v>
+      </c>
+      <c r="F3">
+        <v>0.9807977828367812</v>
+      </c>
+      <c r="G3">
         <v>1.022728363373248</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>1.020487052589121</v>
       </c>
-      <c r="F3">
-        <v>0.9954180985108819</v>
-      </c>
-      <c r="G3">
-        <v>0.9807977828367812</v>
-      </c>
-      <c r="H3">
-        <v>1.02686009883611</v>
-      </c>
       <c r="I3">
-        <v>1.014019738481454</v>
+        <v>1.00936312691206</v>
       </c>
       <c r="J3">
         <v>1.018168368380631</v>
@@ -1133,28 +1124,28 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.061330056224159</v>
+      </c>
+      <c r="C4">
         <v>1.092186751030582</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.023275645849009</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1.014212379619023</v>
+      </c>
+      <c r="F4">
+        <v>0.9690191032366624</v>
+      </c>
+      <c r="G4">
         <v>1.021860567760362</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.032384868385775</v>
       </c>
-      <c r="F4">
-        <v>1.014212379619023</v>
-      </c>
-      <c r="G4">
-        <v>0.9690191032366624</v>
-      </c>
-      <c r="H4">
-        <v>1.061330056224159</v>
-      </c>
       <c r="I4">
-        <v>1.028272718787073</v>
+        <v>1.022077650081027</v>
       </c>
       <c r="J4">
         <v>1.027111201157197</v>
@@ -1168,28 +1159,28 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.068998328826082</v>
+      </c>
+      <c r="C5">
         <v>1.100853225961078</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.014296463506396</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1.034618811251114</v>
+      </c>
+      <c r="F5">
+        <v>0.991982579431852</v>
+      </c>
+      <c r="G5">
         <v>1.019809446993545</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.007219393396418</v>
       </c>
-      <c r="F5">
-        <v>1.034618811251114</v>
-      </c>
-      <c r="G5">
-        <v>0.991982579431852</v>
-      </c>
-      <c r="H5">
-        <v>1.068998328826082</v>
-      </c>
       <c r="I5">
-        <v>1.029942590100756</v>
+        <v>1.027867610355585</v>
       </c>
       <c r="J5">
         <v>1.025290909062353</v>
@@ -1203,28 +1194,28 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.104638764970133</v>
+      </c>
+      <c r="C6">
         <v>1.115156744319816</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.024780536744419</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.043612914174197</v>
+      </c>
+      <c r="F6">
+        <v>1.00148470751262</v>
+      </c>
+      <c r="G6">
         <v>1.044954665597853</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>0.975330166229923</v>
       </c>
-      <c r="F6">
-        <v>1.043612914174197</v>
-      </c>
-      <c r="G6">
-        <v>1.00148470751262</v>
-      </c>
-      <c r="H6">
-        <v>1.104638764970133</v>
-      </c>
       <c r="I6">
-        <v>1.037385624555094</v>
+        <v>1.03798366579802</v>
       </c>
       <c r="J6">
         <v>1.026858339183711</v>
@@ -1238,28 +1229,28 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.101586266493641</v>
+      </c>
+      <c r="C7">
         <v>1.084306394401304</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.02879357913218</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>1.044758389546477</v>
+      </c>
+      <c r="F7">
+        <v>1.005839849549639</v>
+      </c>
+      <c r="G7">
         <v>1.068292471217046</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>0.9999044552267768</v>
       </c>
-      <c r="F7">
-        <v>1.044758389546477</v>
-      </c>
-      <c r="G7">
-        <v>1.005839849549639</v>
-      </c>
-      <c r="H7">
-        <v>1.101586266493641</v>
-      </c>
       <c r="I7">
-        <v>1.044643672155736</v>
+        <v>1.041287322379536</v>
       </c>
       <c r="J7">
         <v>1.029917812005761</v>
@@ -1273,28 +1264,28 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.089209983403007</v>
+      </c>
+      <c r="C8">
         <v>1.04889272361231</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.029245046400803</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>1.047770565525434</v>
+      </c>
+      <c r="F8">
+        <v>1.015836880134614</v>
+      </c>
+      <c r="G8">
         <v>1.097743968548195</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>1.005685152327075</v>
       </c>
-      <c r="F8">
-        <v>1.047770565525434</v>
-      </c>
-      <c r="G8">
-        <v>1.015836880134614</v>
-      </c>
-      <c r="H8">
-        <v>1.089209983403007</v>
-      </c>
       <c r="I8">
-        <v>1.048558400635214</v>
+        <v>1.042723681201229</v>
       </c>
       <c r="J8">
         <v>1.013866573688848</v>
@@ -1308,28 +1299,28 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.110335048647452</v>
+      </c>
+      <c r="C9">
         <v>1.072265362860704</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.049410584399298</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>1.059013194179288</v>
+      </c>
+      <c r="F9">
+        <v>1.0296941502524</v>
+      </c>
+      <c r="G9">
         <v>1.100968630884336</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.016707791000294</v>
       </c>
-      <c r="F9">
-        <v>1.059013194179288</v>
-      </c>
-      <c r="G9">
-        <v>1.0296941502524</v>
-      </c>
-      <c r="H9">
-        <v>1.110335048647452</v>
-      </c>
       <c r="I9">
-        <v>1.061508437828769</v>
+        <v>1.057651269105476</v>
       </c>
       <c r="J9">
         <v>1.027660901099557</v>
@@ -1343,28 +1334,28 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.110259492098048</v>
+      </c>
+      <c r="C10">
         <v>1.060147636851692</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.045949335339855</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.041746213567519</v>
+      </c>
+      <c r="F10">
+        <v>1.029001286746511</v>
+      </c>
+      <c r="G10">
         <v>1.096297285026672</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.003439568505072</v>
       </c>
-      <c r="F10">
-        <v>1.041746213567519</v>
-      </c>
-      <c r="G10">
-        <v>1.029001286746511</v>
-      </c>
-      <c r="H10">
-        <v>1.110259492098048</v>
-      </c>
       <c r="I10">
-        <v>1.052832388523463</v>
+        <v>1.050353765378925</v>
       </c>
       <c r="J10">
         <v>1.020386015005238</v>
@@ -1378,28 +1369,28 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.087347257669719</v>
+      </c>
+      <c r="C11">
         <v>1.033074489502445</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.024028091296714</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>1.04331593907768</v>
+      </c>
+      <c r="F11">
+        <v>1.028110462238939</v>
+      </c>
+      <c r="G11">
         <v>1.057061047172691</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.019722932723632</v>
       </c>
-      <c r="F11">
-        <v>1.04331593907768</v>
-      </c>
-      <c r="G11">
-        <v>1.028110462238939</v>
-      </c>
-      <c r="H11">
-        <v>1.087347257669719</v>
-      </c>
       <c r="I11">
-        <v>1.041276013865582</v>
+        <v>1.038811471229515</v>
       </c>
       <c r="J11">
         <v>1.011430617658561</v>
@@ -1413,28 +1404,28 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.091761509106276</v>
+      </c>
+      <c r="C12">
         <v>1.012616240053686</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.028342111863557</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>1.040558313181452</v>
+      </c>
+      <c r="F12">
+        <v>1.056517865980402</v>
+      </c>
+      <c r="G12">
         <v>1.056625612116048</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>1.001290959378067</v>
       </c>
-      <c r="F12">
-        <v>1.040558313181452</v>
-      </c>
-      <c r="G12">
-        <v>1.056517865980402</v>
-      </c>
-      <c r="H12">
-        <v>1.091761509106276</v>
-      </c>
       <c r="I12">
-        <v>1.038618749635505</v>
+        <v>1.04131309027049</v>
       </c>
       <c r="J12">
         <v>1.007914108598721</v>
@@ -1448,28 +1439,28 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.137076676849913</v>
+      </c>
+      <c r="C13">
         <v>1.010622183874988</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.037020316027088</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>1.052819142166221</v>
+      </c>
+      <c r="F13">
+        <v>1.081164010689894</v>
+      </c>
+      <c r="G13">
         <v>1.05322523850705</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>1.030245250433575</v>
       </c>
-      <c r="F13">
-        <v>1.052819142166221</v>
-      </c>
-      <c r="G13">
-        <v>1.081164010689894</v>
-      </c>
-      <c r="H13">
-        <v>1.137076676849913</v>
-      </c>
       <c r="I13">
-        <v>1.053846244965558</v>
+        <v>1.057317628743193</v>
       </c>
       <c r="J13">
         <v>1.023142367573358</v>
@@ -1483,28 +1474,28 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.121004392227605</v>
+      </c>
+      <c r="C14">
         <v>0.9903556705972582</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.022523200401304</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>1.030758134996394</v>
+      </c>
+      <c r="F14">
+        <v>1.081065030189053</v>
+      </c>
+      <c r="G14">
         <v>1.035860591331532</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>1.024828555087227</v>
       </c>
-      <c r="F14">
-        <v>1.030758134996394</v>
-      </c>
-      <c r="G14">
-        <v>1.081065030189053</v>
-      </c>
-      <c r="H14">
-        <v>1.121004392227605</v>
-      </c>
       <c r="I14">
-        <v>1.039784285624553</v>
+        <v>1.044074194041713</v>
       </c>
       <c r="J14">
         <v>1.017160061629216</v>
@@ -1518,28 +1509,28 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.139172989380303</v>
+      </c>
+      <c r="C15">
         <v>0.9969322212635414</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.031101078505142</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>1.076068049722116</v>
+      </c>
+      <c r="F15">
+        <v>1.069088389587251</v>
+      </c>
+      <c r="G15">
         <v>1.059142054943396</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>1.030123447096827</v>
       </c>
-      <c r="F15">
-        <v>1.076068049722116</v>
-      </c>
-      <c r="G15">
-        <v>1.069088389587251</v>
-      </c>
-      <c r="H15">
-        <v>1.139172989380303</v>
-      </c>
       <c r="I15">
-        <v>1.056696178226091</v>
+        <v>1.057788574831309</v>
       </c>
       <c r="J15">
         <v>1.026434284942462</v>
@@ -1553,28 +1544,28 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.171715167447518</v>
+      </c>
+      <c r="C16">
         <v>1.018962707314735</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.04484574868322</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>1.111492936235204</v>
+      </c>
+      <c r="F16">
+        <v>1.072552707116698</v>
+      </c>
+      <c r="G16">
         <v>1.078399462281797</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>1.042759124195444</v>
       </c>
-      <c r="F16">
-        <v>1.111492936235204</v>
-      </c>
-      <c r="G16">
-        <v>1.072552707116698</v>
-      </c>
-      <c r="H16">
-        <v>1.171715167447518</v>
-      </c>
       <c r="I16">
-        <v>1.077337937598706</v>
+        <v>1.076961924530974</v>
       </c>
       <c r="J16">
         <v>1.04011081950838</v>
@@ -1588,28 +1579,28 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.189923116005769</v>
+      </c>
+      <c r="C17">
         <v>1.017850637522769</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.048758465011287</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>1.176997157524076</v>
+      </c>
+      <c r="F17">
+        <v>1.054043353459369</v>
+      </c>
+      <c r="G17">
         <v>1.088197609056373</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>1.026217334114071</v>
       </c>
-      <c r="F17">
-        <v>1.176997157524076</v>
-      </c>
-      <c r="G17">
-        <v>1.054043353459369</v>
-      </c>
-      <c r="H17">
-        <v>1.189923116005769</v>
-      </c>
       <c r="I17">
-        <v>1.089339977338823</v>
+        <v>1.088178664868845</v>
       </c>
       <c r="J17">
         <v>1.042515364113389</v>
@@ -1623,28 +1614,28 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.200397044346235</v>
+      </c>
+      <c r="C18">
         <v>1.056293739814016</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.05472786556308</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>1.190276186839761</v>
+      </c>
+      <c r="F18">
+        <v>1.055923982975354</v>
+      </c>
+      <c r="G18">
         <v>1.103486027045141</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>1.015135851993217</v>
       </c>
-      <c r="F18">
-        <v>1.190276186839761</v>
-      </c>
-      <c r="G18">
-        <v>1.055923982975354</v>
-      </c>
-      <c r="H18">
-        <v>1.200397044346235</v>
-      </c>
       <c r="I18">
-        <v>1.098513876445492</v>
+        <v>1.0977168733955</v>
       </c>
       <c r="J18">
         <v>1.043693292561303</v>
@@ -1658,28 +1649,28 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.176236507453332</v>
+      </c>
+      <c r="C19">
         <v>1.047569744032212</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.033860045146727</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>1.140129820542192</v>
+      </c>
+      <c r="F19">
+        <v>1.052063743442542</v>
+      </c>
+      <c r="G19">
         <v>1.080071013332571</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>0.9959615109255449</v>
       </c>
-      <c r="F19">
-        <v>1.140129820542192</v>
-      </c>
-      <c r="G19">
-        <v>1.052063743442542</v>
-      </c>
-      <c r="H19">
-        <v>1.176236507453332</v>
-      </c>
       <c r="I19">
-        <v>1.074205472967543</v>
+        <v>1.075194599400658</v>
       </c>
       <c r="J19">
         <v>1.026047924411546</v>
@@ -1693,28 +1684,28 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.179505797241663</v>
+      </c>
+      <c r="C20">
         <v>1.038577317610967</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.038525206922498</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>1.134741843791099</v>
+      </c>
+      <c r="F20">
+        <v>1.067009799069583</v>
+      </c>
+      <c r="G20">
         <v>1.081326315162532</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>0.9970972804599392</v>
       </c>
-      <c r="F20">
-        <v>1.134741843791099</v>
-      </c>
-      <c r="G20">
-        <v>1.067009799069583</v>
-      </c>
-      <c r="H20">
-        <v>1.179505797241663</v>
-      </c>
       <c r="I20">
-        <v>1.074994899967185</v>
+        <v>1.077706041004146</v>
       </c>
       <c r="J20">
         <v>1.02984870687015</v>
@@ -1728,28 +1719,28 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.129671695457043</v>
+      </c>
+      <c r="C21">
         <v>1.019384526890998</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.011336844745423</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>1.090238004327351</v>
+      </c>
+      <c r="F21">
+        <v>1.056616846481243</v>
+      </c>
+      <c r="G21">
         <v>1.044105364654039</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>0.963675892110322</v>
       </c>
-      <c r="F21">
-        <v>1.090238004327351</v>
-      </c>
-      <c r="G21">
-        <v>1.056616846481243</v>
-      </c>
-      <c r="H21">
-        <v>1.129671695457043</v>
-      </c>
       <c r="I21">
-        <v>1.041304843575813</v>
+        <v>1.047322087022044</v>
       </c>
       <c r="J21">
         <v>1.007424090364388</v>
@@ -1763,28 +1754,28 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.126820881609365</v>
+      </c>
+      <c r="C22">
         <v>1.017716422203049</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1.006621519939804</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <v>1.086080352976115</v>
+      </c>
+      <c r="F22">
+        <v>1.059586261506483</v>
+      </c>
+      <c r="G22">
         <v>1.036451669991755</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>0.9634070884818913</v>
       </c>
-      <c r="F22">
-        <v>1.086080352976115</v>
-      </c>
-      <c r="G22">
-        <v>1.059586261506483</v>
-      </c>
-      <c r="H22">
-        <v>1.126820881609365</v>
-      </c>
       <c r="I22">
-        <v>1.038262330815822</v>
+        <v>1.044897233113086</v>
       </c>
       <c r="J22">
         <v>0.9967065120596316</v>
@@ -1798,28 +1789,28 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.181885967353556</v>
+      </c>
+      <c r="C23">
         <v>1.020975937110536</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.018008527715074</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>1.112468711552331</v>
+      </c>
+      <c r="F23">
+        <v>1.085123230723547</v>
+      </c>
+      <c r="G23">
         <v>1.032151528349045</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>0.9780036649761741</v>
       </c>
-      <c r="F23">
-        <v>1.112468711552331</v>
-      </c>
-      <c r="G23">
-        <v>1.085123230723547</v>
-      </c>
-      <c r="H23">
-        <v>1.181885967353556</v>
-      </c>
       <c r="I23">
-        <v>1.055124147265781</v>
+        <v>1.064421803777122</v>
       </c>
       <c r="J23">
         <v>1.004110184997589</v>
@@ -1833,28 +1824,28 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.211941835244988</v>
+      </c>
+      <c r="C24">
         <v>1.052324801073723</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.049260095309757</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <v>1.121929489627084</v>
+      </c>
+      <c r="F24">
+        <v>1.07116698010492</v>
+      </c>
+      <c r="G24">
         <v>1.089845636604087</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>0.9915368996405718</v>
       </c>
-      <c r="F24">
-        <v>1.121929489627084</v>
-      </c>
-      <c r="G24">
-        <v>1.07116698010492</v>
-      </c>
-      <c r="H24">
-        <v>1.211941835244988</v>
-      </c>
       <c r="I24">
-        <v>1.079131776347687</v>
+        <v>1.083036230264689</v>
       </c>
       <c r="J24">
         <v>1.013770768841751</v>
@@ -1868,28 +1859,28 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.205280296984896</v>
+      </c>
+      <c r="C25">
         <v>1.058441184929537</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.043140205668422</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <v>1.12566289084044</v>
+      </c>
+      <c r="F25">
+        <v>1.090666138770662</v>
+      </c>
+      <c r="G25">
         <v>1.079667228946712</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>0.9752884385126379</v>
       </c>
-      <c r="F25">
-        <v>1.12566289084044</v>
-      </c>
-      <c r="G25">
-        <v>1.090666138770662</v>
-      </c>
-      <c r="H25">
-        <v>1.205280296984896</v>
-      </c>
       <c r="I25">
-        <v>1.07587649429531</v>
+        <v>1.083761561993283</v>
       </c>
       <c r="J25">
         <v>1.00506038061224</v>
@@ -1903,28 +1894,28 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.21061140609628</v>
+      </c>
+      <c r="C26">
         <v>1.061355574729173</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.02979683972912</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>1.109032285435493</v>
+      </c>
+      <c r="F26">
+        <v>1.094427397802633</v>
+      </c>
+      <c r="G26">
         <v>1.070023653275577</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>0.9537093373307014</v>
       </c>
-      <c r="F26">
-        <v>1.109032285435493</v>
-      </c>
-      <c r="G26">
-        <v>1.094427397802633</v>
-      </c>
-      <c r="H26">
-        <v>1.21061140609628</v>
-      </c>
       <c r="I26">
-        <v>1.066172177044075</v>
+        <v>1.076221301736622</v>
       </c>
       <c r="J26">
         <v>0.9939815709167896</v>
@@ -1938,28 +1929,28 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.151182085222883</v>
+      </c>
+      <c r="C27">
         <v>1.071134119451635</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.022222222222222</v>
       </c>
-      <c r="D27">
+      <c r="E27">
+        <v>1.132111492936235</v>
+      </c>
+      <c r="F27">
+        <v>1.127090963080273</v>
+      </c>
+      <c r="G27">
         <v>1.035722143480189</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>0.9312513325625188</v>
       </c>
-      <c r="F27">
-        <v>1.132111492936235</v>
-      </c>
-      <c r="G27">
-        <v>1.127090963080273</v>
-      </c>
-      <c r="H27">
-        <v>1.151182085222883</v>
-      </c>
       <c r="I27">
-        <v>1.05697993279349</v>
+        <v>1.075213903719469</v>
       </c>
       <c r="J27">
         <v>0.9800160512383169</v>
@@ -1973,28 +1964,28 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.210158552619677</v>
+      </c>
+      <c r="C28">
         <v>1.092436008052919</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.032054176072235</v>
       </c>
-      <c r="D28">
+      <c r="E28">
+        <v>1.145772347376013</v>
+      </c>
+      <c r="F28">
+        <v>1.13203998812234</v>
+      </c>
+      <c r="G28">
         <v>1.051789351486931</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>0.9440890619411999</v>
       </c>
-      <c r="F28">
-        <v>1.145772347376013</v>
-      </c>
-      <c r="G28">
-        <v>1.13203998812234</v>
-      </c>
-      <c r="H28">
-        <v>1.210158552619677</v>
-      </c>
       <c r="I28">
-        <v>1.074999024647546</v>
+        <v>1.09182059972419</v>
       </c>
       <c r="J28">
         <v>0.9930973392952219</v>
@@ -2008,28 +1999,28 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.265070188703061</v>
+      </c>
+      <c r="C29">
         <v>1.118895599654875</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.052821670428894</v>
       </c>
-      <c r="D29">
+      <c r="E29">
+        <v>1.168342454711298</v>
+      </c>
+      <c r="F29">
+        <v>1.130258339107196</v>
+      </c>
+      <c r="G29">
         <v>1.072590956442874</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>0.9619503665052003</v>
       </c>
-      <c r="F29">
-        <v>1.168342454711298</v>
-      </c>
-      <c r="G29">
-        <v>1.130258339107196</v>
-      </c>
-      <c r="H29">
-        <v>1.265070188703061</v>
-      </c>
       <c r="I29">
-        <v>1.097281335321277</v>
+        <v>1.112135203980078</v>
       </c>
       <c r="J29">
         <v>1.014256075362292</v>
@@ -2043,28 +2034,28 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.293885689187007</v>
+      </c>
+      <c r="C30">
         <v>1.157530438117151</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.075545522949586</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>1.1979975393492</v>
+      </c>
+      <c r="F30">
+        <v>1.124418489557557</v>
+      </c>
+      <c r="G30">
         <v>1.091414025058108</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>0.9793945022237558</v>
       </c>
-      <c r="F30">
-        <v>1.1979975393492</v>
-      </c>
-      <c r="G30">
-        <v>1.124418489557557</v>
-      </c>
-      <c r="H30">
-        <v>1.293885689187007</v>
-      </c>
       <c r="I30">
-        <v>1.118899227307343</v>
+        <v>1.131814775829871</v>
       </c>
       <c r="J30">
         <v>1.024824449396979</v>
@@ -2078,28 +2069,28 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.3124880540376</v>
+      </c>
+      <c r="C31">
         <v>1.122423545201802</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.069525959367946</v>
       </c>
-      <c r="D31">
+      <c r="E31">
+        <v>1.143226846548725</v>
+      </c>
+      <c r="F31">
+        <v>1.14312580421657</v>
+      </c>
+      <c r="G31">
         <v>1.092005818718424</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>0.9909175485221747</v>
       </c>
-      <c r="F31">
-        <v>1.143226846548725</v>
-      </c>
-      <c r="G31">
-        <v>1.14312580421657</v>
-      </c>
-      <c r="H31">
-        <v>1.3124880540376</v>
-      </c>
       <c r="I31">
-        <v>1.109986379040257</v>
+        <v>1.122959218674648</v>
       </c>
       <c r="J31">
         <v>1.038860644782327</v>
@@ -2113,28 +2104,28 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.281372034758234</v>
+      </c>
+      <c r="C32">
         <v>1.140101620170645</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.071281665412591</v>
       </c>
-      <c r="D32">
+      <c r="E32">
+        <v>1.156633150905774</v>
+      </c>
+      <c r="F32">
+        <v>1.137582896169455</v>
+      </c>
+      <c r="G32">
         <v>1.081714619796377</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>0.9939861389882666</v>
       </c>
-      <c r="F32">
-        <v>1.156633150905774</v>
-      </c>
-      <c r="G32">
-        <v>1.137582896169455</v>
-      </c>
-      <c r="H32">
-        <v>1.281372034758234</v>
-      </c>
       <c r="I32">
-        <v>1.109500603589176</v>
+        <v>1.122816983868916</v>
       </c>
       <c r="J32">
         <v>1.052829305603327</v>
@@ -2148,28 +2139,28 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.276114446379858</v>
+      </c>
+      <c r="C33">
         <v>1.086760617390471</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.030850263355907</v>
       </c>
-      <c r="D33">
+      <c r="E33">
+        <v>1.104280683891222</v>
+      </c>
+      <c r="F33">
+        <v>1.118479659507077</v>
+      </c>
+      <c r="G33">
         <v>1.033261125076718</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>0.9735259949271141</v>
       </c>
-      <c r="F33">
-        <v>1.104280683891222</v>
-      </c>
-      <c r="G33">
-        <v>1.118479659507077</v>
-      </c>
-      <c r="H33">
-        <v>1.276114446379858</v>
-      </c>
       <c r="I33">
-        <v>1.073434059442342</v>
+        <v>1.087688339728257</v>
       </c>
       <c r="J33">
         <v>1.045538713796369</v>
@@ -2183,28 +2174,28 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.245324018918102</v>
+      </c>
+      <c r="C34">
         <v>1.075927523727351</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.018610484073238</v>
       </c>
-      <c r="D34">
+      <c r="E34">
+        <v>1.087692503500064</v>
+      </c>
+      <c r="F34">
+        <v>1.128080768088686</v>
+      </c>
+      <c r="G34">
         <v>1.007561411983614</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>0.9608121704368829</v>
       </c>
-      <c r="F34">
-        <v>1.087692503500064</v>
-      </c>
-      <c r="G34">
-        <v>1.128080768088686</v>
-      </c>
-      <c r="H34">
-        <v>1.245324018918102</v>
-      </c>
       <c r="I34">
-        <v>1.05800749666485</v>
+        <v>1.075839263638993</v>
       </c>
       <c r="J34">
         <v>1.041481928221752</v>
@@ -2218,28 +2209,28 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.194330751039041</v>
+      </c>
+      <c r="C35">
         <v>1.036755823986195</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.007424128417356</v>
       </c>
-      <c r="D35">
+      <c r="E35">
+        <v>1.046073564973909</v>
+      </c>
+      <c r="F35">
+        <v>1.110066316935564</v>
+      </c>
+      <c r="G35">
         <v>0.9763674236757957</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>0.954607588191888</v>
       </c>
-      <c r="F35">
-        <v>1.046073564973909</v>
-      </c>
-      <c r="G35">
-        <v>1.110066316935564</v>
-      </c>
-      <c r="H35">
-        <v>1.194330751039041</v>
-      </c>
       <c r="I35">
-        <v>1.030267417406134</v>
+        <v>1.048918960754658</v>
       </c>
       <c r="J35">
         <v>1.026555218929781</v>
@@ -2253,28 +2244,28 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.194601190739756</v>
+      </c>
+      <c r="C36">
         <v>1.026095292877001</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.007975921745673</v>
       </c>
-      <c r="D36">
+      <c r="E36">
+        <v>1.042891688939799</v>
+      </c>
+      <c r="F36">
+        <v>1.126695041076908</v>
+      </c>
+      <c r="G36">
         <v>0.9720005129410668</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>0.9396896259456794</v>
       </c>
-      <c r="F36">
-        <v>1.042891688939799</v>
-      </c>
-      <c r="G36">
-        <v>1.126695041076908</v>
-      </c>
-      <c r="H36">
-        <v>1.194601190739756</v>
-      </c>
       <c r="I36">
-        <v>1.026453110209243</v>
+        <v>1.048751192602826</v>
       </c>
       <c r="J36">
         <v>1.020737822968348</v>
@@ -2288,28 +2279,28 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.159340827636171</v>
+      </c>
+      <c r="C37">
         <v>0.9980251174384047</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.9890644594933534</v>
       </c>
-      <c r="D37">
+      <c r="E37">
+        <v>1.014254804632811</v>
+      </c>
+      <c r="F37">
+        <v>1.087696723745422</v>
+      </c>
+      <c r="G37">
         <v>0.9466977083162603</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>0.926588011002858</v>
       </c>
-      <c r="F37">
-        <v>1.014254804632812</v>
-      </c>
-      <c r="G37">
-        <v>1.087696723745422</v>
-      </c>
-      <c r="H37">
-        <v>1.159340827636171</v>
-      </c>
       <c r="I37">
-        <v>1.000920817621721</v>
+        <v>1.021268364013687</v>
       </c>
       <c r="J37">
         <v>0.9995665223311676</v>
@@ -2323,28 +2314,28 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.190366715771483</v>
+      </c>
+      <c r="C38">
         <v>1.009395072380405</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1.013844996237773</v>
       </c>
-      <c r="D38">
+      <c r="E38">
+        <v>1.028764159348352</v>
+      </c>
+      <c r="F38">
+        <v>1.087795704246264</v>
+      </c>
+      <c r="G38">
         <v>0.9720432222799559</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>0.9441872282376793</v>
       </c>
-      <c r="F38">
-        <v>1.028764159348352</v>
-      </c>
-      <c r="G38">
-        <v>1.087795704246264</v>
-      </c>
-      <c r="H38">
-        <v>1.190366715771483</v>
-      </c>
       <c r="I38">
-        <v>1.01913917083679</v>
+        <v>1.03768019583343</v>
       </c>
       <c r="J38">
         <v>1.019055741144727</v>
@@ -2358,28 +2349,28 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.162769466326001</v>
+      </c>
+      <c r="C39">
         <v>0.9887067395264117</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1.00887885628292</v>
       </c>
-      <c r="D39">
+      <c r="E39">
+        <v>1.008654702812778</v>
+      </c>
+      <c r="F39">
+        <v>1.079877264178957</v>
+      </c>
+      <c r="G39">
         <v>0.9692999218397649</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>0.9319199943167108</v>
       </c>
-      <c r="F39">
-        <v>1.008654702812778</v>
-      </c>
-      <c r="G39">
-        <v>1.079877264178957</v>
-      </c>
-      <c r="H39">
-        <v>1.162769466326001</v>
-      </c>
       <c r="I39">
-        <v>1.00599815642528</v>
+        <v>1.02475177685582</v>
       </c>
       <c r="J39">
         <v>1.010400322909452</v>
@@ -2393,28 +2384,28 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.170250328148155</v>
+      </c>
+      <c r="C40">
         <v>1.001974882561595</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.018459994983697</v>
       </c>
-      <c r="D40">
+      <c r="E40">
+        <v>1.026727758686522</v>
+      </c>
+      <c r="F40">
+        <v>1.128773631594576</v>
+      </c>
+      <c r="G40">
         <v>0.9780692073138362</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>0.9385185850074739</v>
       </c>
-      <c r="F40">
-        <v>1.026727758686522</v>
-      </c>
-      <c r="G40">
-        <v>1.128773631594576</v>
-      </c>
-      <c r="H40">
-        <v>1.170250328148155</v>
-      </c>
       <c r="I40">
-        <v>1.020608993930369</v>
+        <v>1.043673577356065</v>
       </c>
       <c r="J40">
         <v>1.024758485403896</v>
@@ -2428,28 +2419,28 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>1.115512939440801</v>
+      </c>
+      <c r="C41">
         <v>0.9587958968459401</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.9931778279408076</v>
       </c>
-      <c r="D41">
+      <c r="E41">
+        <v>0.9777268677612321</v>
+      </c>
+      <c r="F41">
+        <v>1.119964367019697</v>
+      </c>
+      <c r="G41">
         <v>0.9442258099947074</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>0.9110305920714608</v>
       </c>
-      <c r="F41">
-        <v>0.977726867761232</v>
-      </c>
-      <c r="G41">
-        <v>1.119964367019697</v>
-      </c>
-      <c r="H41">
-        <v>1.115512939440801</v>
-      </c>
       <c r="I41">
-        <v>0.9853417570902047</v>
+        <v>1.011130336379638</v>
       </c>
       <c r="J41">
         <v>1.005478152568434</v>
@@ -2463,28 +2454,28 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>1.109189416105186</v>
+      </c>
+      <c r="C42">
         <v>0.9585849870578086</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.9967895660897919</v>
       </c>
-      <c r="D42">
+      <c r="E42">
+        <v>0.980654193712613</v>
+      </c>
+      <c r="F42">
+        <v>1.110957141443136</v>
+      </c>
+      <c r="G42">
         <v>0.951029047796362</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>0.9151971674722867</v>
       </c>
-      <c r="F42">
-        <v>0.9806541937126129</v>
-      </c>
-      <c r="G42">
-        <v>1.110957141443136</v>
-      </c>
-      <c r="H42">
-        <v>1.109189416105186</v>
-      </c>
       <c r="I42">
-        <v>0.9869281928658445</v>
+        <v>1.011080242092272</v>
       </c>
       <c r="J42">
         <v>1.005715308829281</v>
@@ -2498,28 +2489,28 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>1.07910777662893</v>
+      </c>
+      <c r="C43">
         <v>0.908407631099607</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.965237020316027</v>
       </c>
-      <c r="D43">
+      <c r="E43">
+        <v>0.9222349497263587</v>
+      </c>
+      <c r="F43">
+        <v>1.092546768286647</v>
+      </c>
+      <c r="G43">
         <v>0.9067932552086894</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>0.8906811802860325</v>
       </c>
-      <c r="F43">
-        <v>0.9222349497263587</v>
-      </c>
-      <c r="G43">
-        <v>1.092546768286647</v>
-      </c>
-      <c r="H43">
-        <v>1.07910777662893</v>
-      </c>
       <c r="I43">
-        <v>0.9484717966773373</v>
+        <v>0.9745027319881325</v>
       </c>
       <c r="J43">
         <v>0.9826137761087841</v>
@@ -2533,28 +2524,28 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>1.035259831015209</v>
+      </c>
+      <c r="C44">
         <v>0.8819863867318569</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.9509405568096313</v>
       </c>
-      <c r="D44">
+      <c r="E44">
+        <v>0.8939798905434645</v>
+      </c>
+      <c r="F44">
+        <v>1.071859843610809</v>
+      </c>
+      <c r="G44">
         <v>0.8846548503288518</v>
       </c>
-      <c r="E44">
+      <c r="H44">
         <v>0.8704059727745926</v>
       </c>
-      <c r="F44">
-        <v>0.8939798905434645</v>
-      </c>
-      <c r="G44">
-        <v>1.071859843610809</v>
-      </c>
-      <c r="H44">
-        <v>1.035259831015209</v>
-      </c>
       <c r="I44">
-        <v>0.9238128045461326</v>
+        <v>0.9505867622778319</v>
       </c>
       <c r="J44">
         <v>0.9593049279814547</v>
@@ -2568,28 +2559,28 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>1.047741675812803</v>
+      </c>
+      <c r="C45">
         <v>0.8959256063656409</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.9599699021820918</v>
       </c>
-      <c r="D45">
+      <c r="E45">
+        <v>0.9166348479063257</v>
+      </c>
+      <c r="F45">
+        <v>1.067009799069583</v>
+      </c>
+      <c r="G45">
         <v>0.8972590745517847</v>
       </c>
-      <c r="E45">
+      <c r="H45">
         <v>0.8586428946071173</v>
       </c>
-      <c r="F45">
-        <v>0.9166348479063254</v>
-      </c>
-      <c r="G45">
-        <v>1.067009799069583</v>
-      </c>
-      <c r="H45">
-        <v>1.047741675812803</v>
-      </c>
       <c r="I45">
-        <v>0.9315720617560574</v>
+        <v>0.9586798349653349</v>
       </c>
       <c r="J45">
         <v>0.952121135020441</v>
@@ -2603,28 +2594,28 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>1.075413440765215</v>
+      </c>
+      <c r="C46">
         <v>0.9207554405138531</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.9728618008527715</v>
       </c>
-      <c r="D46">
+      <c r="E46">
+        <v>0.9417080310551101</v>
+      </c>
+      <c r="F46">
+        <v>1.100366227853113</v>
+      </c>
+      <c r="G46">
         <v>0.9205758234182384</v>
       </c>
-      <c r="E46">
+      <c r="H46">
         <v>0.8737382754809732</v>
       </c>
-      <c r="F46">
-        <v>0.9417080310551101</v>
-      </c>
-      <c r="G46">
-        <v>1.100366227853113</v>
-      </c>
-      <c r="H46">
-        <v>1.075413440765215</v>
-      </c>
       <c r="I46">
-        <v>0.9541441169893596</v>
+        <v>0.9820355099700269</v>
       </c>
       <c r="J46">
         <v>0.9759262836671583</v>
@@ -2638,28 +2629,28 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>1.09597699083295</v>
+      </c>
+      <c r="C47">
         <v>0.919892627744224</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.9780285929270127</v>
       </c>
-      <c r="D47">
+      <c r="E47">
+        <v>0.9434898816342115</v>
+      </c>
+      <c r="F47">
+        <v>1.111650004949025</v>
+      </c>
+      <c r="G47">
         <v>0.9234232159553034</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>0.8597240671282411</v>
       </c>
-      <c r="F47">
-        <v>0.9434898816342115</v>
-      </c>
-      <c r="G47">
-        <v>1.111650004949025</v>
-      </c>
-      <c r="H47">
-        <v>1.09597699083295</v>
-      </c>
       <c r="I47">
-        <v>0.9558822545888723</v>
+        <v>0.9865353860681217</v>
       </c>
       <c r="J47">
         <v>0.9772691220977807</v>
@@ -2673,28 +2664,28 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>1.065170022362981</v>
+      </c>
+      <c r="C48">
         <v>0.885859457386636</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.9645849009280161</v>
       </c>
-      <c r="D48">
+      <c r="E48">
+        <v>0.8962708412880235</v>
+      </c>
+      <c r="F48">
+        <v>1.121152133029793</v>
+      </c>
+      <c r="G48">
         <v>0.903489132528878</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>0.8414146770767572</v>
       </c>
-      <c r="F48">
-        <v>0.8962708412880235</v>
-      </c>
-      <c r="G48">
-        <v>1.121152133029793</v>
-      </c>
-      <c r="H48">
-        <v>1.065170022362981</v>
-      </c>
       <c r="I48">
-        <v>0.9319115815494743</v>
+        <v>0.9659949039846917</v>
       </c>
       <c r="J48">
         <v>0.9696502808966706</v>
@@ -2708,28 +2699,28 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>1.076751110942694</v>
+      </c>
+      <c r="C49">
         <v>0.9008340523439747</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.9754201153749685</v>
       </c>
-      <c r="D49">
+      <c r="E49">
+        <v>0.902634593356243</v>
+      </c>
+      <c r="F49">
+        <v>1.134118578640008</v>
+      </c>
+      <c r="G49">
         <v>0.9155694881003309</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>0.8482558344979072</v>
       </c>
-      <c r="F49">
-        <v>0.902634593356243</v>
-      </c>
-      <c r="G49">
-        <v>1.134118578640008</v>
-      </c>
-      <c r="H49">
-        <v>1.076751110942694</v>
-      </c>
       <c r="I49">
-        <v>0.9420043689210607</v>
+        <v>0.9765757060627346</v>
       </c>
       <c r="J49">
         <v>0.9730065916875945</v>
@@ -2743,28 +2734,28 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>1.089631327994035</v>
+      </c>
+      <c r="C50">
         <v>0.9171316268814111</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.9900677200902934</v>
       </c>
-      <c r="D50">
+      <c r="E50">
+        <v>0.9117983963344788</v>
+      </c>
+      <c r="F50">
+        <v>1.116401068989409</v>
+      </c>
+      <c r="G50">
         <v>0.9198825116613835</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>0.8592769349219417</v>
       </c>
-      <c r="F50">
-        <v>0.9117983963344788</v>
-      </c>
-      <c r="G50">
-        <v>1.116401068989409</v>
-      </c>
-      <c r="H50">
-        <v>1.089631327994035</v>
-      </c>
       <c r="I50">
-        <v>0.9495147429790757</v>
+        <v>0.9822456772287135</v>
       </c>
       <c r="J50">
         <v>0.9777371523344186</v>
@@ -2778,28 +2769,28 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>1.112576575035959</v>
+      </c>
+      <c r="C51">
         <v>0.9340044099319337</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.9987459242538249</v>
       </c>
-      <c r="D51">
+      <c r="E51">
+        <v>0.9280896016291206</v>
+      </c>
+      <c r="F51">
+        <v>1.119568445016332</v>
+      </c>
+      <c r="G51">
         <v>0.9235641782236402</v>
       </c>
-      <c r="E51">
+      <c r="H51">
         <v>0.8596426482489276</v>
       </c>
-      <c r="F51">
-        <v>0.9280896016291205</v>
-      </c>
-      <c r="G51">
-        <v>1.119568445016332</v>
-      </c>
-      <c r="H51">
-        <v>1.112576575035959</v>
-      </c>
       <c r="I51">
-        <v>0.9587488210441428</v>
+        <v>0.9922595753239015</v>
       </c>
       <c r="J51">
         <v>0.9853544229642648</v>
@@ -2813,28 +2804,28 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>1.070850574731789</v>
+      </c>
+      <c r="C52">
         <v>0.9085034991851213</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.9784800601956357</v>
       </c>
-      <c r="D52">
+      <c r="E52">
+        <v>0.9075983199694539</v>
+      </c>
+      <c r="F52">
+        <v>1.086310996733644</v>
+      </c>
+      <c r="G52">
         <v>0.8998691704746479</v>
       </c>
-      <c r="E52">
+      <c r="H52">
         <v>0.8432921860342963</v>
       </c>
-      <c r="F52">
-        <v>0.9075983199694539</v>
-      </c>
-      <c r="G52">
-        <v>1.086310996733644</v>
-      </c>
-      <c r="H52">
-        <v>1.070850574731789</v>
-      </c>
       <c r="I52">
-        <v>0.9345664483802987</v>
+        <v>0.9667294184223323</v>
       </c>
       <c r="J52">
         <v>0.9747907606433689</v>
@@ -2848,28 +2839,28 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>1.060214128093845</v>
+      </c>
+      <c r="C53">
         <v>0.9120506183491517</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.9925257085527965</v>
       </c>
-      <c r="D53">
+      <c r="E53">
+        <v>0.9096347206312841</v>
+      </c>
+      <c r="F53">
+        <v>1.108581609422944</v>
+      </c>
+      <c r="G53">
         <v>0.9143125775201612</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>0.8603181779607413</v>
       </c>
-      <c r="F53">
-        <v>0.9096347206312841</v>
-      </c>
-      <c r="G53">
-        <v>1.108581609422944</v>
-      </c>
-      <c r="H53">
-        <v>1.060214128093845</v>
-      </c>
       <c r="I53">
-        <v>0.9441903016643112</v>
+        <v>0.9768379579137949</v>
       </c>
       <c r="J53">
         <v>0.9903535512972134</v>
@@ -2883,28 +2874,28 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>1.020175449433074</v>
+      </c>
+      <c r="C54">
         <v>0.9101716038730707</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.9775771256583898</v>
       </c>
-      <c r="D54">
+      <c r="E54">
+        <v>0.9061982945144458</v>
+      </c>
+      <c r="F54">
+        <v>1.103434623379194</v>
+      </c>
+      <c r="G54">
         <v>0.8944794401902005</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>0.8577319261083156</v>
       </c>
-      <c r="F54">
-        <v>0.9061982945144458</v>
-      </c>
-      <c r="G54">
-        <v>1.103434623379194</v>
-      </c>
-      <c r="H54">
-        <v>1.020175449433074</v>
-      </c>
       <c r="I54">
-        <v>0.9328178123969653</v>
+        <v>0.9656978506708721</v>
       </c>
       <c r="J54">
         <v>0.9767649687220733</v>
@@ -2918,28 +2909,28 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9741431653641376</v>
+      </c>
+      <c r="C55">
         <v>0.9046879493816509</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>0.9655881615249561</v>
       </c>
-      <c r="D55">
+      <c r="E55">
+        <v>0.9079801450935472</v>
+      </c>
+      <c r="F55">
+        <v>1.085915074730278</v>
+      </c>
+      <c r="G55">
         <v>0.8670701022913692</v>
       </c>
-      <c r="E55">
+      <c r="H55">
         <v>0.8482811831112113</v>
       </c>
-      <c r="F55">
-        <v>0.9079801450935472</v>
-      </c>
-      <c r="G55">
-        <v>1.085915074730278</v>
-      </c>
-      <c r="H55">
-        <v>0.9741431653641376</v>
-      </c>
       <c r="I55">
-        <v>0.9176997211993277</v>
+        <v>0.9513149162845932</v>
       </c>
       <c r="J55">
         <v>0.9647296811269164</v>
@@ -2953,28 +2944,28 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9976130746791589</v>
+      </c>
+      <c r="C56">
         <v>0.903115712779216</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>0.9624780536744419</v>
       </c>
-      <c r="D56">
+      <c r="E56">
+        <v>0.9242713503881889</v>
+      </c>
+      <c r="F56">
+        <v>1.079085420172226</v>
+      </c>
+      <c r="G56">
         <v>0.866710659827945</v>
       </c>
-      <c r="E56">
+      <c r="H56">
         <v>0.8570554647807992</v>
       </c>
-      <c r="F56">
-        <v>0.9242713503881889</v>
-      </c>
-      <c r="G56">
-        <v>1.079085420172226</v>
-      </c>
-      <c r="H56">
-        <v>0.9976130746791589</v>
-      </c>
       <c r="I56">
-        <v>0.9238367211298909</v>
+        <v>0.9556164560536833</v>
       </c>
       <c r="J56">
         <v>0.9670651205963146</v>
@@ -2988,28 +2979,28 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>1.017505938915977</v>
+      </c>
+      <c r="C57">
         <v>0.92347809414246</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>0.9837973413594181</v>
       </c>
-      <c r="D57">
+      <c r="E57">
+        <v>0.9536718849433626</v>
+      </c>
+      <c r="F57">
+        <v>1.089676333762249</v>
+      </c>
+      <c r="G57">
         <v>0.8973457921463985</v>
       </c>
-      <c r="E57">
+      <c r="H57">
         <v>0.872967569309121</v>
       </c>
-      <c r="F57">
-        <v>0.9536718849433626</v>
-      </c>
-      <c r="G57">
-        <v>1.089676333762249</v>
-      </c>
-      <c r="H57">
-        <v>1.017505938915977</v>
-      </c>
       <c r="I57">
-        <v>0.9462428200977868</v>
+        <v>0.9765588514644016</v>
       </c>
       <c r="J57">
         <v>0.9818881721848689</v>
@@ -3023,28 +3014,28 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>1.029999165777963</v>
+      </c>
+      <c r="C58">
         <v>0.930955804812578</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>0.980536744419363</v>
       </c>
-      <c r="D58">
+      <c r="E58">
+        <v>0.955453735522464</v>
+      </c>
+      <c r="F58">
+        <v>1.094724339305157</v>
+      </c>
+      <c r="G58">
         <v>0.8886065247595655</v>
       </c>
-      <c r="E58">
+      <c r="H58">
         <v>0.8645395236986895</v>
       </c>
-      <c r="F58">
-        <v>0.955453735522464</v>
-      </c>
-      <c r="G58">
-        <v>1.094724339305157</v>
-      </c>
-      <c r="H58">
-        <v>1.029999165777963</v>
-      </c>
       <c r="I58">
-        <v>0.94534156222765</v>
+        <v>0.9775530657542765</v>
       </c>
       <c r="J58">
         <v>0.9823829021329928</v>
@@ -3058,28 +3049,28 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>1.045284792437646</v>
+      </c>
+      <c r="C59">
         <v>0.9403700508100853</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>0.982141961374467</v>
       </c>
-      <c r="D59">
+      <c r="E59">
+        <v>0.9709812905689195</v>
+      </c>
+      <c r="F59">
+        <v>1.102840740374146</v>
+      </c>
+      <c r="G59">
         <v>0.8993617944919802</v>
       </c>
-      <c r="E59">
+      <c r="H59">
         <v>0.8660654235576709</v>
       </c>
-      <c r="F59">
-        <v>0.9709812905689195</v>
-      </c>
-      <c r="G59">
-        <v>1.102840740374146</v>
-      </c>
-      <c r="H59">
-        <v>1.045284792437646</v>
-      </c>
       <c r="I59">
-        <v>0.9543454562233487</v>
+        <v>0.9863010045932448</v>
       </c>
       <c r="J59">
         <v>0.9863752942857905</v>
@@ -3093,28 +3084,28 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>1.023160511491466</v>
+      </c>
+      <c r="C60">
         <v>0.9306682005560351</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>0.9779784298971658</v>
       </c>
-      <c r="D60">
+      <c r="E60">
+        <v>0.9655084637902507</v>
+      </c>
+      <c r="F60">
+        <v>1.106404038404434</v>
+      </c>
+      <c r="G60">
         <v>0.8879317791717923</v>
       </c>
-      <c r="E60">
+      <c r="H60">
         <v>0.8682780108514163</v>
       </c>
-      <c r="F60">
-        <v>0.9655084637902509</v>
-      </c>
-      <c r="G60">
-        <v>1.106404038404434</v>
-      </c>
-      <c r="H60">
-        <v>1.023160511491466</v>
-      </c>
       <c r="I60">
-        <v>0.9481647687976021</v>
+        <v>0.9809820366254413</v>
       </c>
       <c r="J60">
         <v>0.9822462624330348</v>
@@ -3128,28 +3119,28 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>1.041828415749427</v>
+      </c>
+      <c r="C61">
         <v>0.9459303997699168</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>0.9935791321795836</v>
       </c>
-      <c r="D61">
+      <c r="E61">
+        <v>0.9922362224767723</v>
+      </c>
+      <c r="F61">
+        <v>1.102741759873305</v>
+      </c>
+      <c r="G61">
         <v>0.9056354913080835</v>
       </c>
-      <c r="E61">
+      <c r="H61">
         <v>0.8777429447388747</v>
       </c>
-      <c r="F61">
-        <v>0.9922362224767723</v>
-      </c>
-      <c r="G61">
-        <v>1.102741759873305</v>
-      </c>
-      <c r="H61">
-        <v>1.041828415749427</v>
-      </c>
       <c r="I61">
-        <v>0.9635309024619695</v>
+        <v>0.9948251480625625</v>
       </c>
       <c r="J61">
         <v>0.9912911823417532</v>
@@ -3163,28 +3154,28 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.048781214559733</v>
+      </c>
+      <c r="C62">
         <v>0.9727926373310326</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>1.006571356909957</v>
       </c>
-      <c r="D62">
+      <c r="E62">
+        <v>1.001272750413644</v>
+      </c>
+      <c r="F62">
+        <v>1.089280411758883</v>
+      </c>
+      <c r="G62">
         <v>0.922055420777376</v>
       </c>
-      <c r="E62">
+      <c r="H62">
         <v>0.8834195392007747</v>
       </c>
-      <c r="F62">
-        <v>1.001272750413644</v>
-      </c>
-      <c r="G62">
-        <v>1.089280411758883</v>
-      </c>
-      <c r="H62">
-        <v>1.048781214559733</v>
-      </c>
       <c r="I62">
-        <v>0.9730921041343196</v>
+        <v>1.002129785003389</v>
       </c>
       <c r="J62">
         <v>0.9936391863812625</v>
@@ -3198,28 +3189,28 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>1.043656648275379</v>
+      </c>
+      <c r="C63">
         <v>0.964260377720257</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>1.000752445447705</v>
       </c>
-      <c r="D63">
+      <c r="E63">
+        <v>0.9826905943744432</v>
+      </c>
+      <c r="F63">
+        <v>1.092051865782441</v>
+      </c>
+      <c r="G63">
         <v>0.9306190483913613</v>
       </c>
-      <c r="E63">
+      <c r="H63">
         <v>0.8946895110103003</v>
       </c>
-      <c r="F63">
-        <v>0.9826905943744432</v>
-      </c>
-      <c r="G63">
-        <v>1.092051865782441</v>
-      </c>
-      <c r="H63">
-        <v>1.043656648275379</v>
-      </c>
       <c r="I63">
-        <v>0.9716719644777991</v>
+        <v>0.9984215396606475</v>
       </c>
       <c r="J63">
         <v>0.9962290583954103</v>
@@ -3233,28 +3224,28 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>1.04392928573243</v>
+      </c>
+      <c r="C64">
         <v>0.9411369954942</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>0.9966390770002508</v>
       </c>
-      <c r="D64">
+      <c r="E64">
+        <v>0.9717449408171058</v>
+      </c>
+      <c r="F64">
+        <v>1.088884489755518</v>
+      </c>
+      <c r="G64">
         <v>0.9187309444282503</v>
       </c>
-      <c r="E64">
+      <c r="H64">
         <v>0.8862662101403076</v>
       </c>
-      <c r="F64">
-        <v>0.9717449408171057</v>
-      </c>
-      <c r="G64">
-        <v>1.088884489755518</v>
-      </c>
-      <c r="H64">
-        <v>1.04392928573243</v>
-      </c>
       <c r="I64">
-        <v>0.9624074038753727</v>
+        <v>0.9904600450940937</v>
       </c>
       <c r="J64">
         <v>0.9970112028848254</v>
@@ -3268,28 +3259,28 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>1.049096835503861</v>
+      </c>
+      <c r="C65">
         <v>0.9526028185217142</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>0.9962377727614747</v>
       </c>
-      <c r="D65">
+      <c r="E65">
+        <v>0.9900725467735777</v>
+      </c>
+      <c r="F65">
+        <v>1.086113035731961</v>
+      </c>
+      <c r="G65">
         <v>0.9194539763556382</v>
       </c>
-      <c r="E65">
+      <c r="H65">
         <v>0.8831725960431335</v>
       </c>
-      <c r="F65">
-        <v>0.9900725467735778</v>
-      </c>
-      <c r="G65">
-        <v>1.086113035731961</v>
-      </c>
-      <c r="H65">
-        <v>1.049096835503861</v>
-      </c>
       <c r="I65">
-        <v>0.966944870086371</v>
+        <v>0.9949172936958375</v>
       </c>
       <c r="J65">
         <v>0.9983728881706143</v>
@@ -3303,28 +3294,28 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>1.028702859688156</v>
+      </c>
+      <c r="C66">
         <v>0.9340235835490367</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>0.9893654376724353</v>
       </c>
-      <c r="D66">
+      <c r="E66">
+        <v>0.9788723431335116</v>
+      </c>
+      <c r="F66">
+        <v>1.080570127684846</v>
+      </c>
+      <c r="G66">
         <v>0.9024750955636354</v>
       </c>
-      <c r="E66">
+      <c r="H66">
         <v>0.8763632868797246</v>
       </c>
-      <c r="F66">
-        <v>0.9788723431335116</v>
-      </c>
-      <c r="G66">
-        <v>1.080570127684846</v>
-      </c>
-      <c r="H66">
-        <v>1.028702859688156</v>
-      </c>
       <c r="I66">
-        <v>0.9548083459748219</v>
+        <v>0.9839180642662139</v>
       </c>
       <c r="J66">
         <v>0.9949945893819959</v>
@@ -3338,28 +3329,28 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9884542143273263</v>
+      </c>
+      <c r="C67">
         <v>0.9243600805291918</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>0.9704038123902684</v>
       </c>
-      <c r="D67">
+      <c r="E67">
+        <v>0.9441262568410335</v>
+      </c>
+      <c r="F67">
+        <v>1.077303771157082</v>
+      </c>
+      <c r="G67">
         <v>0.8845985083215226</v>
       </c>
-      <c r="E67">
+      <c r="H67">
         <v>0.8606599942616806</v>
       </c>
-      <c r="F67">
-        <v>0.9441262568410335</v>
-      </c>
-      <c r="G67">
-        <v>1.077303771157082</v>
-      </c>
-      <c r="H67">
-        <v>0.9884542143273263</v>
-      </c>
       <c r="I67">
-        <v>0.9339291397252343</v>
+        <v>0.9641740478216491</v>
       </c>
       <c r="J67">
         <v>0.9779036328883906</v>
@@ -3373,28 +3364,28 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9941718740767979</v>
+      </c>
+      <c r="C68">
         <v>0.9329306873741733</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>0.9554552294958616</v>
       </c>
-      <c r="D68">
+      <c r="E68">
+        <v>0.9574901361842942</v>
+      </c>
+      <c r="F68">
+        <v>1.072750668118381</v>
+      </c>
+      <c r="G68">
         <v>0.8888127903697305</v>
       </c>
-      <c r="E68">
+      <c r="H68">
         <v>0.8596869541585062</v>
       </c>
-      <c r="F68">
-        <v>0.9574901361842942</v>
-      </c>
-      <c r="G68">
-        <v>1.072750668118381</v>
-      </c>
-      <c r="H68">
-        <v>0.9941718740767979</v>
-      </c>
       <c r="I68">
-        <v>0.9367288220490275</v>
+        <v>0.9646994373576282</v>
       </c>
       <c r="J68">
         <v>0.9752902023052845</v>
@@ -3408,28 +3399,28 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>1.00758346234163</v>
+      </c>
+      <c r="C69">
         <v>0.9379733486722271</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>0.9788813644344119</v>
       </c>
-      <c r="D69">
+      <c r="E69">
+        <v>0.9670357642866233</v>
+      </c>
+      <c r="F69">
+        <v>1.059586261506483</v>
+      </c>
+      <c r="G69">
         <v>0.9093637162930635</v>
       </c>
-      <c r="E69">
+      <c r="H69">
         <v>0.8708577630594052</v>
       </c>
-      <c r="F69">
-        <v>0.9670357642866233</v>
-      </c>
-      <c r="G69">
-        <v>1.059586261506483</v>
-      </c>
-      <c r="H69">
-        <v>1.00758346234163</v>
-      </c>
       <c r="I69">
-        <v>0.9478538924232937</v>
+        <v>0.9736785070821363</v>
       </c>
       <c r="J69">
         <v>0.9858805643376666</v>
@@ -3443,28 +3434,28 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>1.008155989434298</v>
+      </c>
+      <c r="C70">
         <v>0.9307257214073436</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>0.9742162026586405</v>
       </c>
-      <c r="D70">
+      <c r="E70">
+        <v>0.9658902889143439</v>
+      </c>
+      <c r="F70">
+        <v>1.04968821142235</v>
+      </c>
+      <c r="G70">
         <v>0.9070130700706168</v>
       </c>
-      <c r="E70">
+      <c r="H70">
         <v>0.8722434222569188</v>
       </c>
-      <c r="F70">
-        <v>0.9658902889143439</v>
-      </c>
-      <c r="G70">
-        <v>1.04968821142235</v>
-      </c>
-      <c r="H70">
-        <v>1.008155989434298</v>
-      </c>
       <c r="I70">
-        <v>0.9453079687406392</v>
+        <v>0.9697727609159846</v>
       </c>
       <c r="J70">
         <v>0.9857627714928752</v>
@@ -3478,28 +3469,28 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>1.00600246583634</v>
+      </c>
+      <c r="C71">
         <v>0.9368037580289523</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>0.9871081013293203</v>
       </c>
-      <c r="D71">
+      <c r="E71">
+        <v>0.964235713376607</v>
+      </c>
+      <c r="F71">
+        <v>1.052063743442542</v>
+      </c>
+      <c r="G71">
         <v>0.9331558091380182</v>
       </c>
-      <c r="E71">
+      <c r="H71">
         <v>0.8751032874746587</v>
       </c>
-      <c r="F71">
-        <v>0.964235713376607</v>
-      </c>
-      <c r="G71">
-        <v>1.052063743442542</v>
-      </c>
-      <c r="H71">
-        <v>1.00600246583634</v>
-      </c>
       <c r="I71">
-        <v>0.9526967688615724</v>
+        <v>0.9757880436774908</v>
       </c>
       <c r="J71">
         <v>0.9956777878817863</v>
@@ -3513,28 +3504,28 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>1.037399867329547</v>
+      </c>
+      <c r="C72">
         <v>0.9533122423545204</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>1.011286681715576</v>
       </c>
-      <c r="D72">
+      <c r="E72">
+        <v>0.9862542955326461</v>
+      </c>
+      <c r="F72">
+        <v>1.067999604077997</v>
+      </c>
+      <c r="G72">
         <v>0.9901387663838845</v>
       </c>
-      <c r="E72">
+      <c r="H72">
         <v>0.8965141561930856</v>
       </c>
-      <c r="F72">
-        <v>0.9862542955326461</v>
-      </c>
-      <c r="G72">
-        <v>1.067999604077997</v>
-      </c>
-      <c r="H72">
-        <v>1.037399867329547</v>
-      </c>
       <c r="I72">
-        <v>0.9815812831696872</v>
+        <v>1.000844619491347</v>
       </c>
       <c r="J72">
         <v>1.009132871899496</v>
@@ -3548,28 +3539,28 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>1.045566012711545</v>
+      </c>
+      <c r="C73">
         <v>0.9631866551624966</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>1.00551793328317</v>
       </c>
-      <c r="D73">
+      <c r="E73">
+        <v>0.9973272241313479</v>
+      </c>
+      <c r="F73">
+        <v>1.071661882609126</v>
+      </c>
+      <c r="G73">
         <v>0.9833482079172127</v>
       </c>
-      <c r="E73">
+      <c r="H73">
         <v>0.8922444964314893</v>
       </c>
-      <c r="F73">
-        <v>0.9973272241313479</v>
-      </c>
-      <c r="G73">
-        <v>1.071661882609126</v>
-      </c>
-      <c r="H73">
-        <v>1.045566012711545</v>
-      </c>
       <c r="I73">
-        <v>0.9831772340726438</v>
+        <v>1.003335945227003</v>
       </c>
       <c r="J73">
         <v>1.009648019274051</v>
@@ -3583,28 +3574,28 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.044965215532113</v>
+      </c>
+      <c r="C74">
         <v>0.9699165947656027</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>1.001906195134186</v>
       </c>
-      <c r="D74">
+      <c r="E74">
+        <v>1.013363879343261</v>
+      </c>
+      <c r="F74">
+        <v>1.090270216767297</v>
+      </c>
+      <c r="G74">
         <v>0.9679485716639767</v>
       </c>
-      <c r="E74">
+      <c r="H74">
         <v>0.8870456475011868</v>
       </c>
-      <c r="F74">
-        <v>1.013363879343261</v>
-      </c>
-      <c r="G74">
-        <v>1.090270216767297</v>
-      </c>
-      <c r="H74">
-        <v>1.044965215532113</v>
-      </c>
       <c r="I74">
-        <v>0.9843774419216048</v>
+        <v>1.008095661195237</v>
       </c>
       <c r="J74">
         <v>1.008347586267553</v>
@@ -3618,28 +3609,28 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.04118637015371</v>
+      </c>
+      <c r="C75">
         <v>0.9683060109289618</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>1.001755706044645</v>
       </c>
-      <c r="D75">
+      <c r="E75">
+        <v>1.014000254550083</v>
+      </c>
+      <c r="F75">
+        <v>1.079778283678115</v>
+      </c>
+      <c r="G75">
         <v>0.9633439353149903</v>
       </c>
-      <c r="E75">
+      <c r="H75">
         <v>0.891172271754207</v>
       </c>
-      <c r="F75">
-        <v>1.014000254550083</v>
-      </c>
-      <c r="G75">
-        <v>1.079778283678115</v>
-      </c>
-      <c r="H75">
-        <v>1.04118637015371</v>
-      </c>
       <c r="I75">
-        <v>0.9828059294043994</v>
+        <v>1.005507707669756</v>
       </c>
       <c r="J75">
         <v>1.012306996423809</v>
@@ -3653,28 +3644,28 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.053591941239306</v>
+      </c>
+      <c r="C76">
         <v>0.9826478765219059</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>1.002758966641585</v>
       </c>
-      <c r="D76">
+      <c r="E76">
+        <v>1.05307369224895</v>
+      </c>
+      <c r="F76">
+        <v>1.085222211224389</v>
+      </c>
+      <c r="G76">
         <v>0.9602141415745229</v>
       </c>
-      <c r="E76">
+      <c r="H76">
         <v>0.8853875015433947</v>
       </c>
-      <c r="F76">
-        <v>1.05307369224895</v>
-      </c>
-      <c r="G76">
-        <v>1.085222211224389</v>
-      </c>
-      <c r="H76">
-        <v>1.053591941239306</v>
-      </c>
       <c r="I76">
-        <v>0.9921571666360921</v>
+        <v>1.016395120110898</v>
       </c>
       <c r="J76">
         <v>1.015022514139068</v>
@@ -3688,28 +3679,28 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>1.058537054935256</v>
+      </c>
+      <c r="C77">
         <v>0.9628990509059535</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>0.9956358164033107</v>
       </c>
-      <c r="D77">
+      <c r="E77">
+        <v>1.049000890925289</v>
+      </c>
+      <c r="F77">
+        <v>1.075126200138573</v>
+      </c>
+      <c r="G77">
         <v>0.956644908776892</v>
       </c>
-      <c r="E77">
+      <c r="H77">
         <v>0.8724152078593874</v>
       </c>
-      <c r="F77">
-        <v>1.049000890925289</v>
-      </c>
-      <c r="G77">
-        <v>1.075126200138573</v>
-      </c>
-      <c r="H77">
-        <v>1.058537054935256</v>
-      </c>
       <c r="I77">
-        <v>0.9848320137506232</v>
+        <v>1.009002203741184</v>
       </c>
       <c r="J77">
         <v>1.011864095327393</v>
@@ -3723,28 +3714,28 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>1.052217302486828</v>
+      </c>
+      <c r="C78">
         <v>0.9706835394497172</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>0.9970403812390268</v>
       </c>
-      <c r="D78">
+      <c r="E78">
+        <v>1.07483772432226</v>
+      </c>
+      <c r="F78">
+        <v>1.07492823913689</v>
+      </c>
+      <c r="G78">
         <v>0.946512427958825</v>
       </c>
-      <c r="E78">
+      <c r="H78">
         <v>0.8721928333577179</v>
       </c>
-      <c r="F78">
-        <v>1.07483772432226</v>
-      </c>
-      <c r="G78">
-        <v>1.07492823913689</v>
-      </c>
-      <c r="H78">
-        <v>1.052217302486828</v>
-      </c>
       <c r="I78">
-        <v>0.9881955433590069</v>
+        <v>1.013521879264945</v>
       </c>
       <c r="J78">
         <v>1.012434212696184</v>
@@ -3758,28 +3749,28 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.062599341478172</v>
+      </c>
+      <c r="C79">
         <v>0.9790432365065671</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>1.006069726611487</v>
       </c>
-      <c r="D79">
+      <c r="E79">
+        <v>1.083619702176403</v>
+      </c>
+      <c r="F79">
+        <v>1.073641492625953</v>
+      </c>
+      <c r="G79">
         <v>0.9559711761059172</v>
       </c>
-      <c r="E79">
+      <c r="H79">
         <v>0.8697693759329562</v>
       </c>
-      <c r="F79">
-        <v>1.083619702176403</v>
-      </c>
-      <c r="G79">
-        <v>1.073641492625953</v>
-      </c>
-      <c r="H79">
-        <v>1.062599341478172</v>
-      </c>
       <c r="I79">
-        <v>0.9940074305652733</v>
+        <v>1.01940449728513</v>
       </c>
       <c r="J79">
         <v>1.019259915409032</v>
@@ -3793,28 +3784,28 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.05600165382321</v>
+      </c>
+      <c r="C80">
         <v>0.995398331895312</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>1.007424128417356</v>
       </c>
-      <c r="D80">
+      <c r="E80">
+        <v>1.083619702176403</v>
+      </c>
+      <c r="F80">
+        <v>1.093833514797585</v>
+      </c>
+      <c r="G80">
         <v>0.9478260618797069</v>
       </c>
-      <c r="E80">
+      <c r="H80">
         <v>0.8687060341030711</v>
       </c>
-      <c r="F80">
-        <v>1.083619702176403</v>
-      </c>
-      <c r="G80">
-        <v>1.093833514797585</v>
-      </c>
-      <c r="H80">
-        <v>1.05600165382321</v>
-      </c>
       <c r="I80">
-        <v>0.9952961225251826</v>
+        <v>1.023768677248399</v>
       </c>
       <c r="J80">
         <v>1.019603870515823</v>
@@ -3828,28 +3819,28 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.050084530335538</v>
+      </c>
+      <c r="C81">
         <v>0.9877288850541657</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>1.001555053925257</v>
       </c>
-      <c r="D81">
+      <c r="E81">
+        <v>1.088583428789614</v>
+      </c>
+      <c r="F81">
+        <v>1.075918044145303</v>
+      </c>
+      <c r="G81">
         <v>0.9451254231117322</v>
       </c>
-      <c r="E81">
+      <c r="H81">
         <v>0.8526133911177722</v>
       </c>
-      <c r="F81">
-        <v>1.088583428789614</v>
-      </c>
-      <c r="G81">
-        <v>1.075918044145303</v>
-      </c>
-      <c r="H81">
-        <v>1.050084530335538</v>
-      </c>
       <c r="I81">
-        <v>0.9887930999498503</v>
+        <v>1.016766528333956</v>
       </c>
       <c r="J81">
         <v>1.018626975189686</v>
@@ -3863,28 +3854,28 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.061676769636872</v>
+      </c>
+      <c r="C82">
         <v>0.9597162304668776</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>0.9905693503887634</v>
       </c>
-      <c r="D82">
+      <c r="E82">
+        <v>1.055619193076238</v>
+      </c>
+      <c r="F82">
+        <v>1.086508957735326</v>
+      </c>
+      <c r="G82">
         <v>0.9395269962168035</v>
       </c>
-      <c r="E82">
+      <c r="H82">
         <v>0.8410316530300878</v>
       </c>
-      <c r="F82">
-        <v>1.055619193076238</v>
-      </c>
-      <c r="G82">
-        <v>1.086508957735326</v>
-      </c>
-      <c r="H82">
-        <v>1.061676769636872</v>
-      </c>
       <c r="I82">
-        <v>0.9770826992874097</v>
+        <v>1.00673466517513</v>
       </c>
       <c r="J82">
         <v>1.01919866312974</v>
@@ -3898,28 +3889,28 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>1.07032218784006</v>
+      </c>
+      <c r="C83">
         <v>0.9463522193461796</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>0.9713569099573613</v>
       </c>
-      <c r="D83">
+      <c r="E83">
+        <v>1.015145729922362</v>
+      </c>
+      <c r="F83">
+        <v>1.098386617836286</v>
+      </c>
+      <c r="G83">
         <v>0.9148904286786633</v>
       </c>
-      <c r="E83">
+      <c r="H83">
         <v>0.8267709998257879</v>
       </c>
-      <c r="F83">
-        <v>1.015145729922362</v>
-      </c>
-      <c r="G83">
-        <v>1.098386617836286</v>
-      </c>
-      <c r="H83">
-        <v>1.07032218784006</v>
-      </c>
       <c r="I83">
-        <v>0.9600032251833513</v>
+        <v>0.992811435112271</v>
       </c>
       <c r="J83">
         <v>1.012145227583629</v>
@@ -3933,28 +3924,28 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>1.059070970919242</v>
+      </c>
+      <c r="C84">
         <v>0.9288467069312627</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>0.9787810383747179</v>
       </c>
-      <c r="D84">
+      <c r="E84">
+        <v>1.025964108438335</v>
+      </c>
+      <c r="F84">
+        <v>1.091161041274869</v>
+      </c>
+      <c r="G84">
         <v>0.9261477953097257</v>
       </c>
-      <c r="E84">
+      <c r="H84">
         <v>0.8199735416807357</v>
       </c>
-      <c r="F84">
-        <v>1.025964108438335</v>
-      </c>
-      <c r="G84">
-        <v>1.091161041274869</v>
-      </c>
-      <c r="H84">
-        <v>1.059070970919242</v>
-      </c>
       <c r="I84">
-        <v>0.9602030648357687</v>
+        <v>0.9925851391016811</v>
       </c>
       <c r="J84">
         <v>1.017100379921189</v>
@@ -3968,28 +3959,28 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>1.034243889231045</v>
+      </c>
+      <c r="C85">
         <v>0.9523727351164799</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>0.9783797341359417</v>
       </c>
-      <c r="D85">
+      <c r="E85">
+        <v>1.044546264477536</v>
+      </c>
+      <c r="F85">
+        <v>1.094724339305157</v>
+      </c>
+      <c r="G85">
         <v>0.9211163754052218</v>
       </c>
-      <c r="E85">
+      <c r="H85">
         <v>0.8279072460007741</v>
       </c>
-      <c r="F85">
-        <v>1.044546264477536</v>
-      </c>
-      <c r="G85">
-        <v>1.094724339305157</v>
-      </c>
-      <c r="H85">
-        <v>1.034243889231045</v>
-      </c>
       <c r="I85">
-        <v>0.9646860469555689</v>
+        <v>0.9970940921590791</v>
       </c>
       <c r="J85">
         <v>1.013967090249737</v>
@@ -4003,28 +3994,28 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>1.042232756646698</v>
+      </c>
+      <c r="C86">
         <v>0.9638002109097882</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>0.9870077752696262</v>
       </c>
-      <c r="D86">
+      <c r="E86">
+        <v>1.068983072419498</v>
+      </c>
+      <c r="F86">
+        <v>1.099772344848065</v>
+      </c>
+      <c r="G86">
         <v>0.9481265168354578</v>
       </c>
-      <c r="E86">
+      <c r="H86">
         <v>0.835084695025092</v>
       </c>
-      <c r="F86">
-        <v>1.068983072419498</v>
-      </c>
-      <c r="G86">
-        <v>1.099772344848065</v>
-      </c>
-      <c r="H86">
-        <v>1.042232756646698</v>
-      </c>
       <c r="I86">
-        <v>0.9797201656234273</v>
+        <v>1.010077056449141</v>
       </c>
       <c r="J86">
         <v>1.022763859898761</v>
@@ -4038,28 +4029,28 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>1.01493366176604</v>
+      </c>
+      <c r="C87">
         <v>0.9615952449429586</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>0.9671933784800602</v>
       </c>
-      <c r="D87">
+      <c r="E87">
+        <v>1.074964999363625</v>
+      </c>
+      <c r="F87">
+        <v>1.094427397802633</v>
+      </c>
+      <c r="G87">
         <v>0.9188219520234223</v>
       </c>
-      <c r="E87">
+      <c r="H87">
         <v>0.8299660950381043</v>
       </c>
-      <c r="F87">
-        <v>1.074964999363625</v>
-      </c>
-      <c r="G87">
-        <v>1.094427397802633</v>
-      </c>
-      <c r="H87">
-        <v>1.01493366176604</v>
-      </c>
       <c r="I87">
-        <v>0.9685655775841997</v>
+        <v>0.9998488505063161</v>
       </c>
       <c r="J87">
         <v>1.011295548529867</v>
@@ -4073,28 +4064,28 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>1.029181924300851</v>
+      </c>
+      <c r="C88">
         <v>0.9779311667146007</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>0.9841484825683471</v>
       </c>
-      <c r="D88">
+      <c r="E88">
+        <v>1.082092401680031</v>
+      </c>
+      <c r="F88">
+        <v>1.109274472928833</v>
+      </c>
+      <c r="G88">
         <v>0.941196581017322</v>
       </c>
-      <c r="E88">
+      <c r="H88">
         <v>0.84810727429156</v>
       </c>
-      <c r="F88">
-        <v>1.08209240168003</v>
-      </c>
-      <c r="G88">
-        <v>1.109274472928833</v>
-      </c>
-      <c r="H88">
-        <v>1.029181924300851</v>
-      </c>
       <c r="I88">
-        <v>0.9843328560490456</v>
+        <v>1.014744766067876</v>
       </c>
       <c r="J88">
         <v>1.024923395386604</v>
@@ -4108,28 +4099,28 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.056542139941927</v>
+      </c>
+      <c r="C89">
         <v>0.998868756590931</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>0.9980938048658139</v>
       </c>
-      <c r="D89">
+      <c r="E89">
+        <v>1.11136566119384</v>
+      </c>
+      <c r="F89">
+        <v>1.111946946451549</v>
+      </c>
+      <c r="G89">
         <v>0.9729653698165786</v>
       </c>
-      <c r="E89">
+      <c r="H89">
         <v>0.8644732706563955</v>
       </c>
-      <c r="F89">
-        <v>1.11136566119384</v>
-      </c>
-      <c r="G89">
-        <v>1.111946946451549</v>
-      </c>
-      <c r="H89">
-        <v>1.056542139941927</v>
-      </c>
       <c r="I89">
-        <v>1.006306025118385</v>
+        <v>1.033566236202824</v>
       </c>
       <c r="J89">
         <v>1.033143765381782</v>
@@ -4143,28 +4134,28 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.062286982467133</v>
+      </c>
+      <c r="C90">
         <v>0.9968171795609243</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>1.000551793328317</v>
       </c>
-      <c r="D90">
+      <c r="E90">
+        <v>1.104492808960163</v>
+      </c>
+      <c r="F90">
+        <v>1.109868355933881</v>
+      </c>
+      <c r="G90">
         <v>0.9718008968317666</v>
       </c>
-      <c r="E90">
+      <c r="H90">
         <v>0.8675947898936855</v>
       </c>
-      <c r="F90">
-        <v>1.104492808960163</v>
-      </c>
-      <c r="G90">
-        <v>1.109868355933881</v>
-      </c>
-      <c r="H90">
-        <v>1.062286982467133</v>
-      </c>
       <c r="I90">
-        <v>1.005730130266149</v>
+        <v>1.032832576519823</v>
       </c>
       <c r="J90">
         <v>1.036514211314081</v>
@@ -4178,28 +4169,28 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.063405200890892</v>
+      </c>
+      <c r="C91">
         <v>0.9916211293260475</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>1.005467770253323</v>
       </c>
-      <c r="D91">
+      <c r="E91">
+        <v>1.094310805651012</v>
+      </c>
+      <c r="F91">
+        <v>1.093140651291696</v>
+      </c>
+      <c r="G91">
         <v>0.9950432856885475</v>
       </c>
-      <c r="E91">
+      <c r="H91">
         <v>0.8624302590860101</v>
       </c>
-      <c r="F91">
-        <v>1.094310805651012</v>
-      </c>
-      <c r="G91">
-        <v>1.093140651291696</v>
-      </c>
-      <c r="H91">
-        <v>1.063405200890892</v>
-      </c>
       <c r="I91">
-        <v>1.00572034526131</v>
+        <v>1.029833832938356</v>
       </c>
       <c r="J91">
         <v>1.034125372421711</v>
@@ -4213,28 +4204,28 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.046147145755339</v>
+      </c>
+      <c r="C92">
         <v>1.00274182724571</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>1.008577878103837</v>
       </c>
-      <c r="D92">
+      <c r="E92">
+        <v>1.10818378515973</v>
+      </c>
+      <c r="F92">
+        <v>1.103929525883401</v>
+      </c>
+      <c r="G92">
         <v>0.9874265207810666</v>
       </c>
-      <c r="E92">
+      <c r="H92">
         <v>0.8686486639081743</v>
       </c>
-      <c r="F92">
-        <v>1.10818378515973</v>
-      </c>
-      <c r="G92">
-        <v>1.103929525883401</v>
-      </c>
-      <c r="H92">
-        <v>1.046147145755339</v>
-      </c>
       <c r="I92">
-        <v>1.008991431668623</v>
+        <v>1.034634653598423</v>
       </c>
       <c r="J92">
         <v>1.028521574152166</v>
@@ -4248,28 +4239,28 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.037479217900415</v>
+      </c>
+      <c r="C93">
         <v>0.9942095676349344</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>1.006471030850263</v>
       </c>
-      <c r="D93">
+      <c r="E93">
+        <v>1.113911162021128</v>
+      </c>
+      <c r="F93">
+        <v>1.089379392259725</v>
+      </c>
+      <c r="G93">
         <v>0.9840533410089387</v>
       </c>
-      <c r="E93">
+      <c r="H93">
         <v>0.85648100453998</v>
       </c>
-      <c r="F93">
-        <v>1.113911162021128</v>
-      </c>
-      <c r="G93">
-        <v>1.089379392259725</v>
-      </c>
-      <c r="H93">
-        <v>1.037479217900415</v>
-      </c>
       <c r="I93">
-        <v>1.003643022378543</v>
+        <v>1.02917463013465</v>
       </c>
       <c r="J93">
         <v>1.025246933066964</v>
@@ -4283,28 +4274,28 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.043417971937289</v>
+      </c>
+      <c r="C94">
         <v>1.001994056178698</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>1.005618259342864</v>
       </c>
-      <c r="D94">
+      <c r="E94">
+        <v>1.11022018582156</v>
+      </c>
+      <c r="F94">
+        <v>1.090567158269821</v>
+      </c>
+      <c r="G94">
         <v>0.9663363179542493</v>
       </c>
-      <c r="E94">
+      <c r="H94">
         <v>0.8828980510621167</v>
       </c>
-      <c r="F94">
-        <v>1.11022018582156</v>
-      </c>
-      <c r="G94">
-        <v>1.090567158269821</v>
-      </c>
-      <c r="H94">
-        <v>1.043417971937289</v>
-      </c>
       <c r="I94">
-        <v>1.006050655540452</v>
+        <v>1.030745760400085</v>
       </c>
       <c r="J94">
         <v>1.027800681942043</v>
@@ -4318,28 +4309,28 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.069950512542225</v>
+      </c>
+      <c r="C95">
         <v>1.034550858019365</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>1.019262603461249</v>
       </c>
-      <c r="D95">
+      <c r="E95">
+        <v>1.13834796996309</v>
+      </c>
+      <c r="F95">
+        <v>1.130159358606355</v>
+      </c>
+      <c r="G95">
         <v>0.9761983142371308</v>
       </c>
-      <c r="E95">
+      <c r="H95">
         <v>0.9095742167424732</v>
       </c>
-      <c r="F95">
-        <v>1.13834796996309</v>
-      </c>
-      <c r="G95">
-        <v>1.130159358606355</v>
-      </c>
-      <c r="H95">
-        <v>1.069950512542225</v>
-      </c>
       <c r="I95">
-        <v>1.030216433451458</v>
+        <v>1.056581376560258</v>
       </c>
       <c r="J95">
         <v>1.0396663478407</v>
@@ -4353,28 +4344,28 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.083262947294888</v>
+      </c>
+      <c r="C96">
         <v>1.029278113316077</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>1.02242287434161</v>
       </c>
-      <c r="D96">
+      <c r="E96">
+        <v>1.134529718722159</v>
+      </c>
+      <c r="F96">
+        <v>1.139562506186281</v>
+      </c>
+      <c r="G96">
         <v>0.9814842265080732</v>
       </c>
-      <c r="E96">
+      <c r="H96">
         <v>0.9029313201421316</v>
       </c>
-      <c r="F96">
-        <v>1.134529718722159</v>
-      </c>
-      <c r="G96">
-        <v>1.139562506186281</v>
-      </c>
-      <c r="H96">
-        <v>1.083262947294888</v>
-      </c>
       <c r="I96">
-        <v>1.031241697188358</v>
+        <v>1.058998680576127</v>
       </c>
       <c r="J96">
         <v>1.041007615700059</v>
@@ -4388,28 +4379,28 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.097915064907148</v>
+      </c>
+      <c r="C97">
         <v>1.030524398427763</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>1.031452219714071</v>
       </c>
-      <c r="D97">
+      <c r="E97">
+        <v>1.156166475754105</v>
+      </c>
+      <c r="F97">
+        <v>1.130456300108879</v>
+      </c>
+      <c r="G97">
         <v>0.9825158286422675</v>
       </c>
-      <c r="E97">
+      <c r="H97">
         <v>0.9095388153457732</v>
       </c>
-      <c r="F97">
-        <v>1.156166475754105</v>
-      </c>
-      <c r="G97">
-        <v>1.130456300108879</v>
-      </c>
-      <c r="H97">
-        <v>1.097915064907148</v>
-      </c>
       <c r="I97">
-        <v>1.038679022264215</v>
+        <v>1.065664409847706</v>
       </c>
       <c r="J97">
         <v>1.049991283329486</v>
@@ -4423,28 +4414,28 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.09467263401467</v>
+      </c>
+      <c r="C98">
         <v>1.02354520180232</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>1.026536242789065</v>
       </c>
-      <c r="D98">
+      <c r="E98">
+        <v>1.130329642357134</v>
+      </c>
+      <c r="F98">
+        <v>1.133128773631595</v>
+      </c>
+      <c r="G98">
         <v>0.994532847122148</v>
       </c>
-      <c r="E98">
+      <c r="H98">
         <v>0.9087513834222365</v>
       </c>
-      <c r="F98">
-        <v>1.130329642357134</v>
-      </c>
-      <c r="G98">
-        <v>1.133128773631595</v>
-      </c>
-      <c r="H98">
-        <v>1.09467263401467</v>
-      </c>
       <c r="I98">
-        <v>1.034511059804069</v>
+        <v>1.060149138391696</v>
       </c>
       <c r="J98">
         <v>1.047283618470546</v>
@@ -4458,28 +4449,28 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.105601775528016</v>
+      </c>
+      <c r="C99">
         <v>1.024292972869332</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1.023727113117632</v>
       </c>
-      <c r="D99">
+      <c r="E99">
+        <v>1.142929871452208</v>
+      </c>
+      <c r="F99">
+        <v>1.127288924081956</v>
+      </c>
+      <c r="G99">
         <v>0.999895026069678</v>
       </c>
-      <c r="E99">
+      <c r="H99">
         <v>0.9151585379188499</v>
       </c>
-      <c r="F99">
-        <v>1.142929871452208</v>
-      </c>
-      <c r="G99">
-        <v>1.127288924081956</v>
-      </c>
-      <c r="H99">
-        <v>1.105601775528016</v>
-      </c>
       <c r="I99">
-        <v>1.039687765647841</v>
+        <v>1.063284012968947</v>
       </c>
       <c r="J99">
         <v>1.0568358328975</v>
@@ -4493,28 +4484,28 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.138931189914788</v>
+      </c>
+      <c r="C100">
         <v>1.031118780557952</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1.028643090042639</v>
       </c>
-      <c r="D100">
+      <c r="E100">
+        <v>1.1676212294769</v>
+      </c>
+      <c r="F100">
+        <v>1.117885776502029</v>
+      </c>
+      <c r="G100">
         <v>1.008173285229875</v>
       </c>
-      <c r="E100">
+      <c r="H100">
         <v>0.9146158826048087</v>
       </c>
-      <c r="F100">
-        <v>1.1676212294769</v>
-      </c>
-      <c r="G100">
-        <v>1.117885776502029</v>
-      </c>
-      <c r="H100">
-        <v>1.138931189914788</v>
-      </c>
       <c r="I100">
-        <v>1.049739963164057</v>
+        <v>1.072113933035056</v>
       </c>
       <c r="J100">
         <v>1.058527338148705</v>
@@ -4528,28 +4519,28 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.139265433952078</v>
+      </c>
+      <c r="C101">
         <v>1.022203048605119</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1.020466516177577</v>
       </c>
-      <c r="D101">
+      <c r="E101">
+        <v>1.142038946162657</v>
+      </c>
+      <c r="F101">
+        <v>1.118578640007919</v>
+      </c>
+      <c r="G101">
         <v>1.003808007078691</v>
       </c>
-      <c r="E101">
+      <c r="H101">
         <v>0.8937821389814203</v>
       </c>
-      <c r="F101">
-        <v>1.142038946162657</v>
-      </c>
-      <c r="G101">
-        <v>1.118578640007919</v>
-      </c>
-      <c r="H101">
-        <v>1.139265433952078</v>
-      </c>
       <c r="I101">
-        <v>1.037977182318823</v>
+        <v>1.062122683331362</v>
       </c>
       <c r="J101">
         <v>1.049366195966459</v>
@@ -4563,28 +4554,28 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.123094689845917</v>
+      </c>
+      <c r="C102">
         <v>1.024235452018023</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>1.0159016804615</v>
       </c>
-      <c r="D102">
+      <c r="E102">
+        <v>1.130838742522591</v>
+      </c>
+      <c r="F102">
+        <v>1.11056121943977</v>
+      </c>
+      <c r="G102">
         <v>0.9921527309792012</v>
       </c>
-      <c r="E102">
+      <c r="H102">
         <v>0.8904384402317939</v>
       </c>
-      <c r="F102">
-        <v>1.130838742522591</v>
-      </c>
-      <c r="G102">
-        <v>1.11056121943977</v>
-      </c>
-      <c r="H102">
-        <v>1.123094689845917</v>
-      </c>
       <c r="I102">
-        <v>1.030065286923239</v>
+        <v>1.054452459792266</v>
       </c>
       <c r="J102">
         <v>1.047214513334935</v>
@@ -4598,28 +4589,28 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.133713855178777</v>
+      </c>
+      <c r="C103">
         <v>1.033649698015531</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1.016955104088287</v>
       </c>
-      <c r="D103">
+      <c r="E103">
+        <v>1.144329896907216</v>
+      </c>
+      <c r="F103">
+        <v>1.12461645055924</v>
+      </c>
+      <c r="G103">
         <v>1.005425504122434</v>
       </c>
-      <c r="E103">
+      <c r="H103">
         <v>0.8920926430719607</v>
       </c>
-      <c r="F103">
-        <v>1.144329896907217</v>
-      </c>
-      <c r="G103">
-        <v>1.12461645055924</v>
-      </c>
-      <c r="H103">
-        <v>1.133713855178777</v>
-      </c>
       <c r="I103">
-        <v>1.039263119604506</v>
+        <v>1.063668460349819</v>
       </c>
       <c r="J103">
         <v>1.051192770346358</v>
@@ -4633,28 +4624,28 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.137965287572252</v>
+      </c>
+      <c r="C104">
         <v>1.02902885629374</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>1.016102332580888</v>
       </c>
-      <c r="D104">
+      <c r="E104">
+        <v>1.145984472444953</v>
+      </c>
+      <c r="F104">
+        <v>1.118182718004553</v>
+      </c>
+      <c r="G104">
         <v>1.003131676574046</v>
       </c>
-      <c r="E104">
+      <c r="H104">
         <v>0.9117160229083002</v>
       </c>
-      <c r="F104">
-        <v>1.145984472444953</v>
-      </c>
-      <c r="G104">
-        <v>1.118182718004553</v>
-      </c>
-      <c r="H104">
-        <v>1.137965287572252</v>
-      </c>
       <c r="I104">
-        <v>1.042294353830603</v>
+        <v>1.064238088940913</v>
       </c>
       <c r="J104">
         <v>1.055659475020849</v>
@@ -4668,28 +4659,28 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.118663666058374</v>
+      </c>
+      <c r="C105">
         <v>0.9966637906241014</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>1.018008527715074</v>
       </c>
-      <c r="D105">
+      <c r="E105">
+        <v>1.134402443680794</v>
+      </c>
+      <c r="F105">
+        <v>1.117687815500346</v>
+      </c>
+      <c r="G105">
         <v>1.018285150211927</v>
       </c>
-      <c r="E105">
+      <c r="H105">
         <v>0.911305678689514</v>
       </c>
-      <c r="F105">
-        <v>1.134402443680794</v>
-      </c>
-      <c r="G105">
-        <v>1.117687815500346</v>
-      </c>
-      <c r="H105">
-        <v>1.118663666058374</v>
-      </c>
       <c r="I105">
-        <v>1.037901034506237</v>
+        <v>1.058511585937635</v>
       </c>
       <c r="J105">
         <v>1.049857784772055</v>
@@ -4703,28 +4694,28 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.134439161038213</v>
+      </c>
+      <c r="C106">
         <v>1.001879014476081</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>1.014095811387008</v>
       </c>
-      <c r="D106">
+      <c r="E106">
+        <v>1.139238895252641</v>
+      </c>
+      <c r="F106">
+        <v>1.11353063446501</v>
+      </c>
+      <c r="G106">
         <v>1.022705280786912</v>
       </c>
-      <c r="E106">
+      <c r="H106">
         <v>0.918720668052521</v>
       </c>
-      <c r="F106">
-        <v>1.139238895252641</v>
-      </c>
-      <c r="G106">
-        <v>1.11353063446501</v>
-      </c>
-      <c r="H106">
-        <v>1.134439161038213</v>
-      </c>
       <c r="I106">
-        <v>1.042527430955046</v>
+        <v>1.061147480656305</v>
       </c>
       <c r="J106">
         <v>1.051167641206136</v>
@@ -4738,28 +4729,28 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.146010625758602</v>
+      </c>
+      <c r="C107">
         <v>1.008052919183204</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>1.020617005267118</v>
       </c>
-      <c r="D107">
+      <c r="E107">
+        <v>1.149039073437699</v>
+      </c>
+      <c r="F107">
+        <v>1.110462238938929</v>
+      </c>
+      <c r="G107">
         <v>1.046947680690444</v>
       </c>
-      <c r="E107">
+      <c r="H107">
         <v>0.9444642214181007</v>
       </c>
-      <c r="F107">
-        <v>1.149039073437699</v>
-      </c>
-      <c r="G107">
-        <v>1.110462238938929</v>
-      </c>
-      <c r="H107">
-        <v>1.146010625758602</v>
-      </c>
       <c r="I107">
-        <v>1.056604474024034</v>
+        <v>1.070571208233784</v>
       </c>
       <c r="J107">
         <v>1.062591976579641</v>
@@ -4773,28 +4764,28 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.136699426191269</v>
+      </c>
+      <c r="C108">
         <v>0.9877480586712685</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>1.018560321043391</v>
       </c>
-      <c r="D108">
+      <c r="E108">
+        <v>1.139620720376734</v>
+      </c>
+      <c r="F108">
+        <v>1.099475403345541</v>
+      </c>
+      <c r="G108">
         <v>1.068007853513355</v>
       </c>
-      <c r="E108">
+      <c r="H108">
         <v>0.9458835487737977</v>
       </c>
-      <c r="F108">
-        <v>1.139620720376734</v>
-      </c>
-      <c r="G108">
-        <v>1.099475403345541</v>
-      </c>
-      <c r="H108">
-        <v>1.136699426191269</v>
-      </c>
       <c r="I108">
-        <v>1.054950745457924</v>
+        <v>1.065365177668102</v>
       </c>
       <c r="J108">
         <v>1.056353667519487</v>
@@ -4808,28 +4799,28 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.123101306249202</v>
+      </c>
+      <c r="C109">
         <v>0.9800977854472247</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>1.012340105342363</v>
       </c>
-      <c r="D109">
+      <c r="E109">
+        <v>1.126638666157567</v>
+      </c>
+      <c r="F109">
+        <v>1.082549737701673</v>
+      </c>
+      <c r="G109">
         <v>1.079437916500216</v>
       </c>
-      <c r="E109">
+      <c r="H109">
         <v>0.93675822130817</v>
       </c>
-      <c r="F109">
-        <v>1.126638666157566</v>
-      </c>
-      <c r="G109">
-        <v>1.082549737701673</v>
-      </c>
-      <c r="H109">
-        <v>1.123101306249202</v>
-      </c>
       <c r="I109">
-        <v>1.048375854267237</v>
+        <v>1.056245224790802</v>
       </c>
       <c r="J109">
         <v>1.046575290830534</v>
@@ -4843,28 +4834,28 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.090305136952376</v>
+      </c>
+      <c r="C110">
         <v>0.972313296903461</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>0.9926761976423376</v>
       </c>
-      <c r="D110">
+      <c r="E110">
+        <v>1.082983326969581</v>
+      </c>
+      <c r="F110">
+        <v>1.088686528753836</v>
+      </c>
+      <c r="G110">
         <v>1.017760173310303</v>
       </c>
-      <c r="E110">
+      <c r="H110">
         <v>0.9160482525803427</v>
       </c>
-      <c r="F110">
-        <v>1.082983326969581</v>
-      </c>
-      <c r="G110">
-        <v>1.088686528753836</v>
-      </c>
-      <c r="H110">
-        <v>1.090305136952376</v>
-      </c>
       <c r="I110">
-        <v>1.017756466597247</v>
+        <v>1.032511896647799</v>
       </c>
       <c r="J110">
         <v>1.031282638434078</v>
@@ -4878,28 +4869,28 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.092001712306663</v>
+      </c>
+      <c r="C111">
         <v>0.9761288467069313</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>0.9942312515675946</v>
       </c>
-      <c r="D111">
+      <c r="E111">
+        <v>1.097365406643757</v>
+      </c>
+      <c r="F111">
+        <v>1.083737503711769</v>
+      </c>
+      <c r="G111">
         <v>1.035003389636691</v>
       </c>
-      <c r="E111">
+      <c r="H111">
         <v>0.9347529726719632</v>
       </c>
-      <c r="F111">
-        <v>1.097365406643757</v>
-      </c>
-      <c r="G111">
-        <v>1.083737503711769</v>
-      </c>
-      <c r="H111">
-        <v>1.092001712306663</v>
-      </c>
       <c r="I111">
-        <v>1.028034285219778</v>
+        <v>1.038855524516849</v>
       </c>
       <c r="J111">
         <v>1.03911664789834</v>
@@ -4913,28 +4904,28 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.088202832644187</v>
+      </c>
+      <c r="C112">
         <v>0.9630524398427764</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>1.007875595685979</v>
       </c>
-      <c r="D112">
+      <c r="E112">
+        <v>1.117602138220695</v>
+      </c>
+      <c r="F112">
+        <v>1.07344353162427</v>
+      </c>
+      <c r="G112">
         <v>1.087337773777855</v>
       </c>
-      <c r="E112">
+      <c r="H112">
         <v>0.9247033957674012</v>
       </c>
-      <c r="F112">
-        <v>1.117602138220695</v>
-      </c>
-      <c r="G112">
-        <v>1.07344353162427</v>
-      </c>
-      <c r="H112">
-        <v>1.088202832644187</v>
-      </c>
       <c r="I112">
-        <v>1.039186101532912</v>
+        <v>1.046113897309411</v>
       </c>
       <c r="J112">
         <v>1.045648653784841</v>
@@ -4948,28 +4939,28 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.09055551923474</v>
+      </c>
+      <c r="C113">
         <v>0.9528137283098458</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>1.003812390268372</v>
       </c>
-      <c r="D113">
+      <c r="E113">
+        <v>1.138602520045819</v>
+      </c>
+      <c r="F113">
+        <v>1.061961793526675</v>
+      </c>
+      <c r="G113">
         <v>1.096805030426054</v>
       </c>
-      <c r="E113">
+      <c r="H113">
         <v>0.9303597980005837</v>
       </c>
-      <c r="F113">
-        <v>1.138602520045819</v>
-      </c>
-      <c r="G113">
-        <v>1.061961793526675</v>
-      </c>
-      <c r="H113">
-        <v>1.09055551923474</v>
-      </c>
       <c r="I113">
-        <v>1.044067812828455</v>
+        <v>1.047928748365296</v>
       </c>
       <c r="J113">
         <v>1.053410416970965</v>
@@ -4983,28 +4974,28 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.101601974667874</v>
+      </c>
+      <c r="C114">
         <v>0.9582782091841626</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1.009129671432154</v>
       </c>
-      <c r="D114">
+      <c r="E114">
+        <v>1.168130329642357</v>
+      </c>
+      <c r="F114">
+        <v>1.075522122141938</v>
+      </c>
+      <c r="G114">
         <v>1.109313313553174</v>
       </c>
-      <c r="E114">
+      <c r="H114">
         <v>0.9258549161068143</v>
       </c>
-      <c r="F114">
-        <v>1.168130329642357</v>
-      </c>
-      <c r="G114">
-        <v>1.075522122141938</v>
-      </c>
-      <c r="H114">
-        <v>1.101601974667874</v>
-      </c>
       <c r="I114">
-        <v>1.055112909603082</v>
+        <v>1.060061265994492</v>
       </c>
       <c r="J114">
         <v>1.058532049862497</v>
@@ -5018,28 +5009,28 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.1160717247728</v>
+      </c>
+      <c r="C115">
         <v>0.9451442814686992</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>1.025532982192124</v>
       </c>
-      <c r="D115">
+      <c r="E115">
+        <v>1.16125747740868</v>
+      </c>
+      <c r="F115">
+        <v>1.072354746115015</v>
+      </c>
+      <c r="G115">
         <v>1.136402021576963</v>
       </c>
-      <c r="E115">
+      <c r="H115">
         <v>0.9292221219038214</v>
       </c>
-      <c r="F115">
-        <v>1.16125747740868</v>
-      </c>
-      <c r="G115">
-        <v>1.072354746115015</v>
-      </c>
-      <c r="H115">
-        <v>1.1160717247728</v>
-      </c>
       <c r="I115">
-        <v>1.061286697632757</v>
+        <v>1.064513056115392</v>
       </c>
       <c r="J115">
         <v>1.066410035322148</v>
@@ -5053,28 +5044,28 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.118823361974031</v>
+      </c>
+      <c r="C116">
         <v>0.9467932125395456</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>1.019663907700025</v>
       </c>
-      <c r="D116">
+      <c r="E116">
+        <v>1.1415298459972</v>
+      </c>
+      <c r="F116">
+        <v>1.078788478669702</v>
+      </c>
+      <c r="G116">
         <v>1.13341801635546</v>
       </c>
-      <c r="E116">
+      <c r="H116">
         <v>0.9089375549043923</v>
       </c>
-      <c r="F116">
-        <v>1.1415298459972</v>
-      </c>
-      <c r="G116">
-        <v>1.078788478669702</v>
-      </c>
-      <c r="H116">
-        <v>1.118823361974031</v>
-      </c>
       <c r="I116">
-        <v>1.053183979539741</v>
+        <v>1.058793661050728</v>
       </c>
       <c r="J116">
         <v>1.060900471328436</v>
@@ -5088,28 +5079,28 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.151759192902441</v>
+      </c>
+      <c r="C117">
         <v>0.9647397181478287</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>1.022222222222222</v>
       </c>
-      <c r="D117">
+      <c r="E117">
+        <v>1.176785032455136</v>
+      </c>
+      <c r="F117">
+        <v>1.091655943779076</v>
+      </c>
+      <c r="G117">
         <v>1.130231332440926</v>
       </c>
-      <c r="E117">
+      <c r="H117">
         <v>0.9101509951898081</v>
       </c>
-      <c r="F117">
-        <v>1.176785032455136</v>
-      </c>
-      <c r="G117">
-        <v>1.091655943779076</v>
-      </c>
-      <c r="H117">
-        <v>1.151759192902441</v>
-      </c>
       <c r="I117">
-        <v>1.066471179722331</v>
+        <v>1.073820763559387</v>
       </c>
       <c r="J117">
         <v>1.070094595507224</v>
@@ -5123,34 +5114,349 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>0.9647397181478287</v>
+        <v>1.158595950178206</v>
       </c>
       <c r="C118">
-        <v>1.022222222222222</v>
+        <v>0.979925222893299</v>
       </c>
       <c r="D118">
-        <v>1.130231332440926</v>
+        <v>1.030900426385754</v>
       </c>
       <c r="E118">
+        <v>1.19345806287387</v>
+      </c>
+      <c r="F118">
+        <v>1.072948629120063</v>
+      </c>
+      <c r="G118">
+        <v>1.145808193383882</v>
+      </c>
+      <c r="H118">
         <v>0.915990557403224</v>
       </c>
-      <c r="F118">
-        <v>1.176785032455136</v>
-      </c>
-      <c r="G118">
-        <v>1.091655943779076</v>
-      </c>
-      <c r="H118">
-        <v>1.158596065849592</v>
-      </c>
       <c r="I118">
-        <v>1.068322779459729</v>
+        <v>1.079493416061799</v>
       </c>
       <c r="J118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="K118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.157231721850478</v>
+      </c>
+      <c r="C119">
+        <v>0.9655833573003547</v>
+      </c>
+      <c r="D119">
+        <v>1.017557060446451</v>
+      </c>
+      <c r="E119">
+        <v>1.191676212294769</v>
+      </c>
+      <c r="F119">
+        <v>1.066811838067901</v>
+      </c>
+      <c r="G119">
+        <v>1.11835743314633</v>
+      </c>
+      <c r="H119">
+        <v>0.9176693722303256</v>
+      </c>
+      <c r="I119">
+        <v>1.071093210614573</v>
+      </c>
+      <c r="J119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="K119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.164615812991016</v>
+      </c>
+      <c r="C120">
+        <v>0.9664269964528809</v>
+      </c>
+      <c r="D120">
+        <v>1.019162277401555</v>
+      </c>
+      <c r="E120">
+        <v>1.195367188494336</v>
+      </c>
+      <c r="F120">
+        <v>1.076511927150351</v>
+      </c>
+      <c r="G120">
+        <v>1.120925022313663</v>
+      </c>
+      <c r="H120">
+        <v>0.9269692584800483</v>
+      </c>
+      <c r="I120">
+        <v>1.07610198763301</v>
+      </c>
+      <c r="J120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="K120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.142112314972629</v>
+      </c>
+      <c r="C121">
+        <v>0.9736362764835588</v>
+      </c>
+      <c r="D121">
+        <v>1.014246300476549</v>
+      </c>
+      <c r="E121">
+        <v>1.216240295278096</v>
+      </c>
+      <c r="F121">
+        <v>1.096110066316936</v>
+      </c>
+      <c r="G121">
+        <v>1.094363448108445</v>
+      </c>
+      <c r="H121">
+        <v>0.9201863378730533</v>
+      </c>
+      <c r="I121">
+        <v>1.078349170158085</v>
+      </c>
+      <c r="J121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="K121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.121508187382649</v>
+      </c>
+      <c r="C122">
+        <v>0.9452593231713163</v>
+      </c>
+      <c r="D122">
+        <v>0.9962377727614747</v>
+      </c>
+      <c r="E122">
+        <v>1.153748249968181</v>
+      </c>
+      <c r="F122">
+        <v>1.070870038602395</v>
+      </c>
+      <c r="G122">
+        <v>1.081114984968374</v>
+      </c>
+      <c r="H122">
+        <v>0.8984867116177743</v>
+      </c>
+      <c r="I122">
+        <v>1.048808132980422</v>
+      </c>
+      <c r="J122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="K122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.141999211491295</v>
+      </c>
+      <c r="C123">
+        <v>0.9396606269772794</v>
+      </c>
+      <c r="D123">
+        <v>0.9941810885377477</v>
+      </c>
+      <c r="E123">
+        <v>1.156930126002291</v>
+      </c>
+      <c r="F123">
+        <v>1.071661882609126</v>
+      </c>
+      <c r="G123">
+        <v>1.10128671059238</v>
+      </c>
+      <c r="H123">
+        <v>0.902285840453098</v>
+      </c>
+      <c r="I123">
+        <v>1.053077858381238</v>
+      </c>
+      <c r="J123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="K123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.172960740067379</v>
+      </c>
+      <c r="C124">
+        <v>0.934828875467357</v>
+      </c>
+      <c r="D124">
+        <v>0.9964885879107097</v>
+      </c>
+      <c r="E124">
+        <v>1.100420007636502</v>
+      </c>
+      <c r="F124">
+        <v>1.083242601207562</v>
+      </c>
+      <c r="G124">
+        <v>1.102433177491516</v>
+      </c>
+      <c r="H124">
+        <v>0.9019206470976672</v>
+      </c>
+      <c r="I124">
+        <v>1.047244583363347</v>
+      </c>
+      <c r="J124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="K124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.189142449820943</v>
+      </c>
+      <c r="C125">
+        <v>0.9378966542038157</v>
+      </c>
+      <c r="D125">
+        <v>1.008176573865061</v>
+      </c>
+      <c r="E125">
+        <v>1.140384370624921</v>
+      </c>
+      <c r="F125">
+        <v>1.080174205681481</v>
+      </c>
+      <c r="G125">
+        <v>1.130131887844656</v>
+      </c>
+      <c r="H125">
+        <v>0.9062079858921318</v>
+      </c>
+      <c r="I125">
+        <v>1.062084927810447</v>
+      </c>
+      <c r="J125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="K125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.186521636957397</v>
+      </c>
+      <c r="C126">
+        <v>0.9208704822164703</v>
+      </c>
+      <c r="D126">
+        <v>0.9972410333584149</v>
+      </c>
+      <c r="E126">
+        <v>1.105892834415171</v>
+      </c>
+      <c r="F126">
+        <v>1.052261704444224</v>
+      </c>
+      <c r="G126">
+        <v>1.12227912523981</v>
+      </c>
+      <c r="H126">
+        <v>0.9120456632086609</v>
+      </c>
+      <c r="I126">
+        <v>1.045250805205796</v>
+      </c>
+      <c r="J126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="K126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.211938249432019</v>
+      </c>
+      <c r="C127">
+        <v>0.9037676157607133</v>
+      </c>
+      <c r="D127">
+        <v>1.000953097567093</v>
+      </c>
+      <c r="E127">
+        <v>1.103347333587883</v>
+      </c>
+      <c r="F127">
+        <v>1.042066712857567</v>
+      </c>
+      <c r="G127">
+        <v>1.145460131338605</v>
+      </c>
+      <c r="H127">
+        <v>0.9058603415766807</v>
+      </c>
+      <c r="I127">
+        <v>1.045976062613311</v>
+      </c>
+      <c r="J127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="K127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -5262,18 +5568,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -5305,28 +5611,25 @@
       <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>76</v>
@@ -5338,36 +5641,33 @@
         <v>0.1</v>
       </c>
       <c r="J2">
-        <v>41.16</v>
+        <v>4.356100082397461</v>
       </c>
       <c r="K2">
-        <v>9.26</v>
+        <v>25.67799949645996</v>
       </c>
       <c r="L2">
-        <v>13.51</v>
-      </c>
-      <c r="M2">
-        <v>21.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.6868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
         <v>77</v>
@@ -5379,36 +5679,33 @@
         <v>0.1</v>
       </c>
       <c r="J3">
-        <v>34.32</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K3">
-        <v>3.01</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L3">
-        <v>-5.03</v>
-      </c>
-      <c r="M3">
-        <v>-23.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -5417,39 +5714,36 @@
         <v>85</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
-        <v>36.2</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K4">
-        <v>3.04</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L4">
-        <v>-5.91</v>
-      </c>
-      <c r="M4">
-        <v>-12.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>79</v>
@@ -5461,33 +5755,30 @@
         <v>0.2</v>
       </c>
       <c r="J5">
-        <v>60.7</v>
+        <v>12.25669956207275</v>
       </c>
       <c r="K5">
-        <v>5.28</v>
+        <v>50.5802001953125</v>
       </c>
       <c r="L5">
-        <v>11.61</v>
-      </c>
-      <c r="M5">
-        <v>69.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>77.6234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -5499,36 +5790,33 @@
         <v>87</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J6">
-        <v>53.46</v>
+        <v>0.6822999715805054</v>
       </c>
       <c r="K6">
-        <v>12.86</v>
+        <v>6.071000099182129</v>
       </c>
       <c r="L6">
-        <v>35.09</v>
-      </c>
-      <c r="M6">
-        <v>77.62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -5540,36 +5828,33 @@
         <v>88</v>
       </c>
       <c r="I7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J7">
-        <v>6.41</v>
+        <v>3.07480001449585</v>
       </c>
       <c r="K7">
-        <v>0.71</v>
+        <v>36.68439865112305</v>
       </c>
       <c r="L7">
-        <v>5.61</v>
-      </c>
-      <c r="M7">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>-12.2529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -5581,19 +5866,16 @@
         <v>89</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J8">
-        <v>24.53</v>
+        <v>5.263500213623047</v>
       </c>
       <c r="K8">
-        <v>4.14</v>
+        <v>60.46319961547852</v>
       </c>
       <c r="L8">
-        <v>11.05</v>
-      </c>
-      <c r="M8">
-        <v>13.69</v>
+        <v>69.75069999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5637,13 +5919,13 @@
         <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5657,13 +5939,13 @@
         <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5677,13 +5959,13 @@
         <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5697,13 +5979,13 @@
         <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5717,13 +5999,13 @@
         <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5737,13 +6019,13 @@
         <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5757,13 +6039,13 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5774,16 +6056,16 @@
         <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5794,16 +6076,16 @@
         <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5814,16 +6096,16 @@
         <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5834,16 +6116,16 @@
         <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5854,16 +6136,16 @@
         <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5874,16 +6156,16 @@
         <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5894,16 +6176,16 @@
         <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5914,16 +6196,16 @@
         <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5934,16 +6216,16 @@
         <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5954,16 +6236,16 @@
         <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5974,16 +6256,16 @@
         <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5994,16 +6276,16 @@
         <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6014,16 +6296,16 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6033,7 +6315,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6041,109 +6323,98 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
